--- a/frenchToEnglishM.xlsx
+++ b/frenchToEnglishM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnbrooks/Dropbox/R_files/Users/johnbrooks/Dropbox/Synced/R/STAT 5702/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{907F0B00-8003-9D45-A6B4-D79189568ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7253BB-A0C5-2843-BC97-182A5C1A5F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="920">
   <si>
     <t>translatedText</t>
   </si>
@@ -979,31 +979,9 @@
     <t>317</t>
   </si>
   <si>
-    <t>I bought my 2 screens, my office, my hub to plug in my laptop at the start of Covid19. all at my expense, because I wanted to work in good condition. moreover I would need a webcam because my Laptop is closed when I use my 2 inkers. I feel that I have invested enough of my own funds ($ 1000 +). it would be wise to give an allowance to the employees so that they can equip themselves properly.</t>
-  </si>
-  <si>
     <t>I adapt to the client</t>
   </si>
   <si>
-    <t>no, you have to do it that's all</t>
-  </si>
-  <si>
-    <t>The process of transmitting information between departments for the IR. it is very problematic and not standardized.</t>
-  </si>
-  <si>
-    <t>Under commit, over deliver.
-Exceed their expectations, act and not react.</t>
-  </si>
-  <si>
-    <t>I felt treated like a human being and a valued employee. I hope the CRA will keep this good attitude.</t>
-  </si>
-  <si>
-    <t>I bought my 2 screens, a desk, a hub to plug in my laptop at the start of Covid19. all at my expense, because I wanted to work in good condition. moreover I would need a webcam because my Laptop is closed when I use my 2 inkers. I feel that I have invested enough of my own funds ($ 1000 +) to do my job well. it would be wise to give an allowance to the employees so that they can equip themselves properly.</t>
-  </si>
-  <si>
-    <t>The volume of security in general, there is a lot of gray area, it would sometimes be necessary for the policy to give clear and precise answers on certain subjects.</t>
-  </si>
-  <si>
     <t>Our sector, despite the problems associated with the pandemic, has been able to respond to the enormous demand for security clearance from the call center sector. We are very proud of this accomplishment.</t>
   </si>
   <si>
@@ -1016,12 +994,6 @@
     <t>nothing prevents me</t>
   </si>
   <si>
-    <t>We respond to multiple tickets for which customers need an invoice, cancel an order, close an order. I try to answer their request as quickly as possible.</t>
-  </si>
-  <si>
-    <t>Respond quickly to their ticket and request for help</t>
-  </si>
-  <si>
     <t>During the pandemic, I changed teams for a temporary transfer. My new colleague had to do my training remotely and it went well.</t>
   </si>
   <si>
@@ -1034,18 +1006,9 @@
     <t>Procedure structure</t>
   </si>
   <si>
-    <t>Validation of the accuracy of requests so as not to delay their execution.</t>
-  </si>
-  <si>
-    <t>respond on time</t>
-  </si>
-  <si>
     <t>often the deadlines are too short</t>
   </si>
   <si>
-    <t>Two screens, because I only have a laptop and it's too small for the eyes (like in the office), a wireless keyboard and mouse (like my ergonomic and office rating).</t>
-  </si>
-  <si>
     <t>Have been trained remotely. I started an assignment on March 9 and on March 13 we were in lockdown, so I was fully trained remotely.</t>
   </si>
   <si>
@@ -1053,9 +1016,6 @@
   </si>
   <si>
     <t>The patience of the person who trained me from a distance.</t>
-  </si>
-  <si>
-    <t>Training related to my work.</t>
   </si>
   <si>
     <t>security volume</t>
@@ -1079,40 +1039,15 @@
 Listen to suggestions from supervisors to improve the application of the Access and Certification Exam and implement those suggestions where possible.</t>
   </si>
   <si>
-    <t>The addition of the MS Teams application (chat, calls by Teams, video meetings) has greatly facilitated contact with all stakeholders - both co-workers, supervisors (our customers), stakeholders from all over the world. regions of Canada.</t>
-  </si>
-  <si>
     <t>I would just like to add a big THANK YOU to our supervisors and managers at all levels for their support and understanding. Feeling heard and supported allows us, in turn, to better support our clients (supervisors) in our day-to-day work.</t>
   </si>
   <si>
     <t>training remains an issue, we learn too often from the person before us, very very rare training provided by official trainers</t>
   </si>
   <si>
-    <t>all my job is to provide good service to clients</t>
-  </si>
-  <si>
-    <t>all went well, I received all the necessary equipment to do my job well</t>
-  </si>
-  <si>
     <t>I believe that working from home (for me because I am alone) gives better customer service because I am not disturbed, I can concentrate much better in order to provide the best service</t>
   </si>
   <si>
-    <t>Despite the confinement, the fact of working at home brings me a lot, no travel, no race against the clock, much less stress, I can concentrate entirely on my work, as I don't miss socializing, teleworking is ideal for me especially at the end of my career, it's a nice transition</t>
-  </si>
-  <si>
-    <t>I have been part of the DGFA since I joined the Canada Revenue Agency. In all of the teams that I have been a part of, I have found that the training given to employees in order to achieve objectives is extremely deficient. There is no uniform training plan, no training document created and available, and there is rarely a colleague who can provide training for more than a week. The weakness of online training is that it does not offer a summary document for future reference. You have to redo the online training if you want to consult a concept or create a document from scratch during the training. The policies are very little publicized and seldom taught when starting employees. The granting of a cellular device rather than a wired line to the employees of the DGFA should be automatic since our customers are internal. Other tools (equipment to do the job and computer equipment) are adequate.</t>
-  </si>
-  <si>
-    <t>The building service calls process. Currently, clients are requesting service calls through Winfast and DGFA employees must report these requests by appealing to the CNAS. In some areas, clients make their own appeal to the CNAS and it should be nationally uniform.
-The approval process for procurement over $ 25,000. As soon as the request goes to the Central Administration, the process blocks. We are asked and asked again to confirm and reconfirm our needs, details already provided, to give product specifications ourselves, to look for the products we need in AMAs ourselves. I am not employed by contracting but I do the work for them.</t>
-  </si>
-  <si>
-    <t>Improve communications (consultations) between the functional and the regions. Make sure employees have the right training (and understanding) to use the new tools. They in turn will be able to offer a service better suited to the needs of their customers.</t>
-  </si>
-  <si>
-    <t>F&amp;A employees are generally very dedicated and offer personalized and "local" service to internal customers, a service tailored to each individual's needs.</t>
-  </si>
-  <si>
     <t>Listening to customer needs. Try to go beyond the expressed needs. Offers innovative solutions. Request regular feedback from clients in order to be able to adapt services.</t>
   </si>
   <si>
@@ -1146,18 +1081,9 @@
     <t>Constant communications with senior management and my immediate supervisor.</t>
   </si>
   <si>
-    <t>I had to adapt my services in virtual mode, training, discussion, with all the stakeholders, it's a change but after some time we embark on this new reality and we can quickly continue our work and achieve our objectives anyway .</t>
-  </si>
-  <si>
-    <t>Thank you for your efforts of multiple consultations with employees, this allows to get the facts straight and to take the right orientations for a better future and a successful organization, despite the current context. The well-being of the people is considered and the delivery of services to the taxpayers with a higher level of quality is in the crosshairs, we must not lose the goal! I am proud to work in an organization where creativity and innovation are in the spotlight, because there is a lot of work to be done at the moment and we must react quickly in order to maximize our chances of success, many of our employees experience difficult moments. Thank you very much !</t>
-  </si>
-  <si>
     <t>I respond and / or redirect my clients' questions as soon as possible, even if it is not part of my job.</t>
   </si>
   <si>
-    <t>The speed with which it all happened, that is to say, from one day to the next, more physical access to the office, work colleagues and to my clients.</t>
-  </si>
-  <si>
     <t>The adaptation didn't happen overnight, but I was still able to provide excellent service to my clients.</t>
   </si>
   <si>
@@ -1167,10 +1093,6 @@
     <t>Our team listens to customers and is always ready to innovate to improve and facilitate the services we offer.</t>
   </si>
   <si>
-    <t>Our flexibility, we are attentive to the needs of the customers.
-example: accommodation of time limits when possible.</t>
-  </si>
-  <si>
     <t>I was hired during the pandemic, so for me COVID-19 restrictions have been an integral part of my work since I started with the Agency. I do not have a basis for comparison from before the pandemic.</t>
   </si>
   <si>
@@ -1186,15 +1108,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>To be in front of the need</t>
-  </si>
-  <si>
-    <t>Already under review: hiring policies (with and without solicitation)</t>
-  </si>
-  <si>
-    <t>Clearance certificates. The process should be standardized regardless of the region of the employee. A web form should be implemented and after sending the form, all the departments concerned receive an email with all the details of the employee who is leaving. (The Quebec region is currently functioning).</t>
-  </si>
-  <si>
     <t>Listening to customers' needs, offering them support adapted to their needs and always in a professional and courteous manner. be proactive and provide them with information that can help them in their daily tasks. As a thank you, clients send appreciation emails to my team leader.</t>
   </si>
   <si>
@@ -1213,20 +1126,10 @@
     <t>The Organizational Programs team is a tight-knit team. We help each other within the limits of our knowledge and roles. I have noted that this is also the case within several sectors we serve.</t>
   </si>
   <si>
-    <t>Personally, I love working remotely because it allows for better concentration to do regular tasks. On the other hand, I save nearly 3 hours of travel per day, which considerably improves my quality of life.
-I particularly appreciated the arrival of the use of Teams which, in my opinion, filled the gaps in contact between work colleagues. The screen sharing possible by this application also helps in teamwork and training.</t>
-  </si>
-  <si>
-    <t>I don't really have an opportunity to work with the DGFA directly. My actions remain within the F&amp;A Region of Quebec except when I have to prepare reports for the regional director who then sends them to the DGFA.</t>
-  </si>
-  <si>
     <t>I would like to have more online training.</t>
   </si>
   <si>
     <t>We often do more than we should, for example we sometimes take charge of clients' timesheets and take care of making the necessary changes instead of telling the client to do it themselves .</t>
-  </si>
-  <si>
-    <t>The intermittency of the SRA and the bandwidth limit affect the use of IT equipment and software applications like MS Teams (e.g .: being limited to 9 boxes, I do not see my 12 employees during meetings MSteam).</t>
   </si>
   <si>
     <t>Many transactions with IT are difficult, including E-Store and Mobile Devices.
@@ -1234,15 +1137,6 @@
 Mobile devices, it is difficult to make corrections to the billing table provided, if a device is not assigned to the right cost center / employee, there is no easy way to have it transferred to the right place for the next billing table.</t>
   </si>
   <si>
-    <t>Detailed, sustained and documented responses.</t>
-  </si>
-  <si>
-    <t>Provide customers with amenities that meet their needs. On several occasions, improvements have been made to improve the quality of life of users or to facilitate the achievement of operational objectives.</t>
-  </si>
-  <si>
-    <t>Regularly and timely informing clients and managing the progress of real estate projects is a highly valued element. I would rate small successes whenever customers are happy with information received or an action taken for them.</t>
-  </si>
-  <si>
     <t>The speed of service.</t>
   </si>
   <si>
@@ -1255,25 +1149,10 @@
     <t>I am able to provide adequate service</t>
   </si>
   <si>
-    <t>Creation of an interactive excel tool for budget, forecasts and results for the last 3 years. Automation of methods of making to ensure the completeness of the results</t>
-  </si>
-  <si>
     <t>Quick response, clear and concise explanations provided, relevant training, development of a tool that is easy to understand by the customer</t>
   </si>
   <si>
-    <t>Thank you and good day.</t>
-  </si>
-  <si>
-    <t>Quick and complete response, concern for efficiency towards customers.</t>
-  </si>
-  <si>
-    <t>The rapidity</t>
-  </si>
-  <si>
     <t>link between central administration and regions</t>
-  </si>
-  <si>
-    <t>See down there</t>
   </si>
   <si>
     <t>Training on travel policy via Teams to work teams.</t>
@@ -2857,6 +2736,136 @@
   </si>
   <si>
     <t>Que la personne prenne le temps de bien comprendre la demande et de prendre en charge la situation</t>
+  </si>
+  <si>
+    <t>none, you have to do it that's all</t>
+  </si>
+  <si>
+    <t>The process of transmitting information between departments for the RI. it is very problematic and not standardized.</t>
+  </si>
+  <si>
+    <t>Under commit, over deliver.
+Exceed their expectations, act and do not react.</t>
+  </si>
+  <si>
+    <t>I feel I was treated like a human being and a valued employee. I hope the CRA will keep this good attitude.</t>
+  </si>
+  <si>
+    <t>I bought my 2 screens, my desk, my hub to plug in my laptop at the start of Covid19. all at my expense, because I wanted to work in good condition. moreover I need a webcam because my Laptop is closed when I use my 2 screens. I feel that I have invested enough of my own funds ($ 1000 +). it would be wise to give an allowance to the employees so that they can equip themselves properly.</t>
+  </si>
+  <si>
+    <t>I bought my 2 screens, a desk, a hub to plug in my laptop at the start of Covid19. all at my expense, because I wanted to work in good condition. moreover I need a webcam because my Laptop is closed when I use my 2 screens. I feel that I have invested enough of my own funds ($ 1000 +) to do my job well. it would be wise to give an allowance to the employees so that they can equip themselves properly.</t>
+  </si>
+  <si>
+    <t>I bought my 2 screens, a desk, a hub to plug in my laptop at the start of Covid19. all at my expense, because I wanted to work in good condition. moreover I need a webcam because my Laptop is closed when I use my 2 screens. I feel that I have invested enough of my own funds ($ 1000 +) to do my job well. it would be wise to give an allowance to employees so that they can equip themselves properly.</t>
+  </si>
+  <si>
+    <t>The volume of security in general, there is a lot of gray area, policy should sometimes give clear and precise answers on certain subjects.</t>
+  </si>
+  <si>
+    <t>We respond to multiple tickets for which customers need an invoice, to cancel an order, to close an order. I try to answer their request as quickly as possible.</t>
+  </si>
+  <si>
+    <t>Respond quickly to their ticket and their request for help</t>
+  </si>
+  <si>
+    <t>Validating the accuracy of requests so as not to delay their execution.</t>
+  </si>
+  <si>
+    <t>respond in a reasonable amount of time</t>
+  </si>
+  <si>
+    <t>Two screens, because I only have a laptop and it's too small for my eyes (like in the office), a wireless keyboard and mouse (per my ergonomic evaluation and like in the office).</t>
+  </si>
+  <si>
+    <t>Online training related to my work.</t>
+  </si>
+  <si>
+    <t>The addition of the MS Teams application (chat, calls by Teams, video meetings) has greatly facilitated contact with all stakeholders - both co-workers, supervisors (our customers), stakeholders from all over Canada.</t>
+  </si>
+  <si>
+    <t>my entire job is to provide good service to clients</t>
+  </si>
+  <si>
+    <t>everything went well, I received all the necessary equipment to do my job well</t>
+  </si>
+  <si>
+    <t>Despite the lockdown, working at home means a lot to me, no travel, no race against the clock, much less stress, I can concentrate entirely on my work, as I don't miss socializing, teleworking is ideal for me especially at the end of my career, it's a nice transition</t>
+  </si>
+  <si>
+    <t>I have been part of the DGFA since I joined the Canada Revenue Agency. In all of the teams that I have been a part of, I have found that the training given to employees in order to achieve objectives is extremely deficient. There is no uniform training plan, no training document created and available, and there is rarely a colleague who can provide training for more than a week. The weakness of online training is that it does not offer a summary document for future reference. You have to redo the online training if you want to consult a concept or create a document from scratch during the training. The policies are not often advertised and seldom taught to new employees. The granting of a cellular device rather than a wired line to the employees of the DGFA should be automatic since our customers are internal. Other tools (equipment to do the job and computer equipment) are adequate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The building service calls process. Currently, clients are requesting service calls through Winfast and DGFA employees must report these requests by appealing to the CNAS. In some areas, clients make their own appeal to the CNAS and it should be nationally uniform.
+The approval process for procurement over $ 25,000. As soon as the request goes to the Central Administration, the process blocks. We are asked again and again to confirm and reconfirm our needs, details already provided, to give product specifications ourselves, to look for the products we need in AMAs ourselves. I am not employed by procurement but I'm doing their work for them. </t>
+  </si>
+  <si>
+    <t>Improve communications (consultations) between operations and the regions. Make sure employees have the right training (and understanding) to use the new tools. They in turn will be able to offer a service better suited to the needs of their customers.</t>
+  </si>
+  <si>
+    <t>F&amp;A employees are generally very dedicated and offer personalized and "local" service to internal clients, a service tailored to each individual's needs.</t>
+  </si>
+  <si>
+    <t>I had to adapt to provide services in a virtual mode, training, discussion, with all the stakeholders, it's a change but after some time we embark on this new reality and we can quickly continue our work and achieve our objectives anyway .</t>
+  </si>
+  <si>
+    <t>Thank you for your efforts in conducting multiple consultations with employees, this allows to get the facts straight and to take the right approach for a better future and a successful organization, despite the current context. The well-being of the people is considered and the delivery of services to taxpayers with a higher level of quality is attainable, we must not lose sight of the goal! I am proud to work in an organization where creativity and innovation are valued, because there is a lot of work to be done at the moment and we must react quickly in order to maximize our chances of success, many of our employees experience difficult moments. Thank you very much !</t>
+  </si>
+  <si>
+    <t>The speed with which it all happened, that is to say, from one day to the next, no more physical access to the office, work colleagues and to my clients.</t>
+  </si>
+  <si>
+    <t>Our flexibility, we listen to the needs of the clients.
+example: accommodation of time limits when possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>To address needs proactively</t>
+  </si>
+  <si>
+    <t>Already in the process of being changed: hiring policies (with and without solicitation)</t>
+  </si>
+  <si>
+    <t>Clearance certificates. The process should be standardized regardless of the region of the employee. A web form should be implemented and after sending the form, all the departments concerned receive an email with all the details of the employee who is leaving. (The Quebec region currently works like this).</t>
+  </si>
+  <si>
+    <t>Personally, I love working remotely because it allows for better concentration to do regular tasks. Moreover, I save nearly 3 hours of travel per day, which considerably improves my quality of life.
+I particularly appreciated the arrival of the use of Teams which, in my opinion, filled the gaps in communication between work colleagues. The screen sharing made possible by this application also helps in teamwork and training.</t>
+  </si>
+  <si>
+    <t>I don't really work with the DGFA directly. I work within the F&amp;A Region of Quebec except when I have to prepare reports for the regional director who then sends them to the DGFA.</t>
+  </si>
+  <si>
+    <t>The intermittency of the SRA and the bandwidth limit affect the use of IT equipment and software applications like MS Teams (e.g .: being limited to 9 viewing windows, I do not see my 12 employees during meetings MSteam).</t>
+  </si>
+  <si>
+    <t>Detailed, referenced and documented responses.</t>
+  </si>
+  <si>
+    <t>Provide customers with products/services that meet their needs. On several occasions, improvements have been made to improve the quality of life of users or to facilitate the achievement of operational objectives.</t>
+  </si>
+  <si>
+    <t>Providing regular, timely information to clients and managing the progress of real estate projects is highly valued. I would describe small successes every time customers are happy with information received or an action taken for them.</t>
+  </si>
+  <si>
+    <t>Creation of an interactive excel tool for budget, forecasts and results for the last 3 years. Automation to ensure the completeness of the results</t>
+  </si>
+  <si>
+    <t>Thank you and have a good day.</t>
+  </si>
+  <si>
+    <t>Quick and complete response, concerned about efficiency for clients.</t>
+  </si>
+  <si>
+    <t>The speed</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>See below</t>
   </si>
 </sst>
 </file>
@@ -2892,8 +2901,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3210,9 +3222,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -3227,10 +3244,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>882</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3238,10 +3255,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>620</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3249,10 +3266,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>878</v>
       </c>
       <c r="C4" t="s">
-        <v>621</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3260,21 +3277,21 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>879</v>
       </c>
       <c r="C5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>323</v>
+      <c r="B6" s="1" t="s">
+        <v>880</v>
       </c>
       <c r="C6" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3282,10 +3299,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>881</v>
       </c>
       <c r="C7" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3293,10 +3310,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>884</v>
       </c>
       <c r="C8" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3304,10 +3321,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>883</v>
       </c>
       <c r="C9" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,10 +3332,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>885</v>
       </c>
       <c r="C10" t="s">
-        <v>626</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3326,10 +3343,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3337,10 +3354,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3348,10 +3365,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3359,10 +3376,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3370,10 +3387,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>886</v>
       </c>
       <c r="C15" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3381,10 +3398,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>887</v>
       </c>
       <c r="C16" t="s">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3392,10 +3409,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>633</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3403,10 +3420,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3414,10 +3431,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C19" t="s">
-        <v>635</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3425,10 +3442,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C20" t="s">
-        <v>636</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3436,10 +3453,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>888</v>
       </c>
       <c r="C21" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3447,10 +3464,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>889</v>
       </c>
       <c r="C22" t="s">
-        <v>638</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3458,10 +3475,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C23" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3469,10 +3486,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>890</v>
       </c>
       <c r="C24" t="s">
-        <v>640</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3480,10 +3497,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
-        <v>641</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3491,10 +3508,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3502,10 +3519,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>643</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3513,10 +3530,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>891</v>
       </c>
       <c r="C28" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3524,10 +3541,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>645</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3535,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>646</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3546,10 +3563,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>647</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3557,10 +3574,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>648</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3568,10 +3585,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3579,10 +3596,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3590,10 +3607,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>892</v>
       </c>
       <c r="C35" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3601,10 +3618,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3612,10 +3629,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>653</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3623,10 +3640,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>893</v>
       </c>
       <c r="C38" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3634,10 +3651,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>894</v>
       </c>
       <c r="C39" t="s">
-        <v>655</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3645,10 +3662,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s">
-        <v>656</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3656,10 +3673,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>895</v>
       </c>
       <c r="C41" t="s">
-        <v>657</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3667,21 +3684,21 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>358</v>
+        <v>896</v>
       </c>
       <c r="C42" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="176" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>359</v>
+      <c r="B43" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="C43" t="s">
-        <v>659</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3689,10 +3706,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>898</v>
       </c>
       <c r="C44" t="s">
-        <v>660</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3700,10 +3717,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>899</v>
       </c>
       <c r="C45" t="s">
-        <v>661</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3711,10 +3728,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C46" t="s">
-        <v>662</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3722,10 +3739,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
-        <v>663</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3733,10 +3750,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C48" t="s">
-        <v>664</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3744,10 +3761,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3755,10 +3772,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C50" t="s">
-        <v>666</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3766,10 +3783,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3777,10 +3794,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C52" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3788,10 +3805,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3799,10 +3816,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>670</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3810,10 +3827,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C55" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3821,10 +3838,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>672</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3832,10 +3849,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>373</v>
+        <v>900</v>
       </c>
       <c r="C57" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3843,10 +3860,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>901</v>
       </c>
       <c r="C58" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3854,10 +3871,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>675</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3865,10 +3882,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C60" t="s">
-        <v>675</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3876,10 +3893,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>902</v>
       </c>
       <c r="C61" t="s">
-        <v>676</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3887,10 +3904,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C62" t="s">
-        <v>677</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3898,10 +3915,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s">
-        <v>678</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3909,21 +3926,21 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C64" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>380</v>
+      <c r="B65" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="C65" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3931,10 +3948,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="C66" t="s">
-        <v>681</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3942,10 +3959,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3953,10 +3970,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C68" t="s">
-        <v>682</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3964,10 +3981,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C69" t="s">
-        <v>683</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3975,10 +3992,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>684</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3986,10 +4003,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s">
-        <v>684</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3997,10 +4014,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>369</v>
+        <v>904</v>
       </c>
       <c r="C72" t="s">
-        <v>685</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -4008,10 +4025,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>905</v>
       </c>
       <c r="C73" t="s">
-        <v>686</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4019,10 +4036,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>387</v>
+        <v>906</v>
       </c>
       <c r="C74" t="s">
-        <v>687</v>
+        <v>648</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4030,10 +4047,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>907</v>
       </c>
       <c r="C75" t="s">
-        <v>688</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4041,10 +4058,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>689</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4052,10 +4069,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>690</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -4063,10 +4080,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C78" t="s">
-        <v>691</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4074,10 +4091,10 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>692</v>
+        <v>653</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4085,10 +4102,10 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="C80" t="s">
-        <v>693</v>
+        <v>654</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -4096,21 +4113,21 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C81" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>395</v>
+      <c r="B82" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="C82" t="s">
-        <v>695</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4118,10 +4135,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>909</v>
       </c>
       <c r="C83" t="s">
-        <v>696</v>
+        <v>657</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -4129,10 +4146,10 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C84" t="s">
-        <v>697</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4140,10 +4157,10 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C85" t="s">
-        <v>698</v>
+        <v>659</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4151,10 +4168,10 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>910</v>
       </c>
       <c r="C86" t="s">
-        <v>699</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -4162,10 +4179,10 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C87" t="s">
-        <v>700</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4173,10 +4190,10 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>401</v>
+        <v>911</v>
       </c>
       <c r="C88" t="s">
-        <v>701</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4184,10 +4201,10 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>912</v>
       </c>
       <c r="C89" t="s">
-        <v>702</v>
+        <v>663</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -4195,10 +4212,10 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>913</v>
       </c>
       <c r="C90" t="s">
-        <v>703</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -4206,10 +4223,10 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C91" t="s">
-        <v>704</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4217,10 +4234,10 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
-        <v>705</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4228,10 +4245,10 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="C93" t="s">
-        <v>706</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4239,10 +4256,10 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>707</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -4250,10 +4267,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>408</v>
+        <v>914</v>
       </c>
       <c r="C95" t="s">
-        <v>708</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -4261,10 +4278,10 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C96" t="s">
-        <v>709</v>
+        <v>670</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -4272,10 +4289,10 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>410</v>
+        <v>915</v>
       </c>
       <c r="C97" t="s">
-        <v>710</v>
+        <v>671</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4283,10 +4300,10 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>411</v>
+        <v>916</v>
       </c>
       <c r="C98" t="s">
-        <v>711</v>
+        <v>672</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4294,10 +4311,10 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>917</v>
       </c>
       <c r="C99" t="s">
-        <v>712</v>
+        <v>673</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4305,10 +4322,10 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>369</v>
+        <v>918</v>
       </c>
       <c r="C100" t="s">
-        <v>685</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4316,10 +4333,10 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C101" t="s">
-        <v>713</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4327,10 +4344,10 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>414</v>
+        <v>919</v>
       </c>
       <c r="C102" t="s">
-        <v>714</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -4338,10 +4355,10 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
-        <v>715</v>
+        <v>676</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -4349,10 +4366,10 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="C104" t="s">
-        <v>716</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -4360,10 +4377,10 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="C105" t="s">
-        <v>717</v>
+        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -4371,10 +4388,10 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="C106" t="s">
-        <v>718</v>
+        <v>679</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -4382,10 +4399,10 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="C107" t="s">
-        <v>719</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -4393,10 +4410,10 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="C108" t="s">
-        <v>720</v>
+        <v>681</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -4404,10 +4421,10 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="C109" t="s">
-        <v>721</v>
+        <v>682</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4415,10 +4432,10 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="C110" t="s">
-        <v>722</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -4426,10 +4443,10 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="C111" t="s">
-        <v>723</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -4437,10 +4454,10 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C112" t="s">
-        <v>724</v>
+        <v>685</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -4448,10 +4465,10 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="C113" t="s">
-        <v>725</v>
+        <v>686</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -4459,10 +4476,10 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="C114" t="s">
-        <v>726</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4470,10 +4487,10 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="C115" t="s">
-        <v>727</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4481,10 +4498,10 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C116" t="s">
-        <v>728</v>
+        <v>689</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -4492,10 +4509,10 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="C117" t="s">
-        <v>729</v>
+        <v>690</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4503,10 +4520,10 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>730</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4514,10 +4531,10 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4525,10 +4542,10 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="C120" t="s">
-        <v>732</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4536,10 +4553,10 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="C121" t="s">
-        <v>733</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -4547,10 +4564,10 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="C122" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4558,10 +4575,10 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="C123" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4569,10 +4586,10 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="C124" t="s">
-        <v>736</v>
+        <v>697</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4580,10 +4597,10 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="C125" t="s">
-        <v>737</v>
+        <v>698</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -4591,10 +4608,10 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="C126" t="s">
-        <v>738</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4602,10 +4619,10 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="C127" t="s">
-        <v>739</v>
+        <v>700</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -4613,10 +4630,10 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="C128" t="s">
-        <v>740</v>
+        <v>701</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -4624,10 +4641,10 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="C129" t="s">
-        <v>741</v>
+        <v>702</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -4635,10 +4652,10 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="C130" t="s">
-        <v>742</v>
+        <v>703</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -4646,10 +4663,10 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="C131" t="s">
-        <v>743</v>
+        <v>704</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -4657,10 +4674,10 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="C132" t="s">
-        <v>744</v>
+        <v>705</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -4668,10 +4685,10 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="C133" t="s">
-        <v>745</v>
+        <v>706</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -4679,10 +4696,10 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="C134" t="s">
-        <v>746</v>
+        <v>707</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -4690,10 +4707,10 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="C135" t="s">
-        <v>747</v>
+        <v>708</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -4701,10 +4718,10 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="C136" t="s">
-        <v>748</v>
+        <v>709</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -4712,10 +4729,10 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="C137" t="s">
-        <v>749</v>
+        <v>710</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -4723,10 +4740,10 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="C138" t="s">
-        <v>750</v>
+        <v>711</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -4734,10 +4751,10 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="C139" t="s">
-        <v>751</v>
+        <v>712</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -4745,10 +4762,10 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="C140" t="s">
-        <v>752</v>
+        <v>713</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -4756,10 +4773,10 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C141" t="s">
-        <v>753</v>
+        <v>714</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -4767,10 +4784,10 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C142" t="s">
-        <v>753</v>
+        <v>714</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -4778,10 +4795,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="C143" t="s">
-        <v>754</v>
+        <v>715</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -4789,10 +4806,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="C144" t="s">
-        <v>755</v>
+        <v>716</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -4800,10 +4817,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="C145" t="s">
-        <v>756</v>
+        <v>717</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -4811,10 +4828,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C146" t="s">
-        <v>685</v>
+        <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -4822,10 +4839,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="C147" t="s">
-        <v>757</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4833,10 +4850,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="C148" t="s">
-        <v>758</v>
+        <v>719</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4844,10 +4861,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="C149" t="s">
-        <v>759</v>
+        <v>720</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -4855,10 +4872,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="C150" t="s">
-        <v>760</v>
+        <v>721</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -4866,10 +4883,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="C151" t="s">
-        <v>761</v>
+        <v>722</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4877,10 +4894,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="C152" t="s">
-        <v>762</v>
+        <v>723</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4888,10 +4905,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="C153" t="s">
-        <v>763</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -4899,10 +4916,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="C154" t="s">
-        <v>764</v>
+        <v>725</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4910,10 +4927,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="C155" t="s">
-        <v>765</v>
+        <v>726</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4921,10 +4938,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="C156" t="s">
-        <v>766</v>
+        <v>727</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4932,10 +4949,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="C157" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4943,10 +4960,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="C158" t="s">
-        <v>767</v>
+        <v>728</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,10 +4971,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="C159" t="s">
-        <v>768</v>
+        <v>729</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4965,10 +4982,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="C160" t="s">
-        <v>769</v>
+        <v>730</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4976,10 +4993,10 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C161" t="s">
-        <v>770</v>
+        <v>731</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4987,10 +5004,10 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="C162" t="s">
-        <v>771</v>
+        <v>732</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4998,10 +5015,10 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="C163" t="s">
-        <v>772</v>
+        <v>733</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -5009,10 +5026,10 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="C164" t="s">
-        <v>773</v>
+        <v>734</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -5020,10 +5037,10 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="C165" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -5031,10 +5048,10 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="C166" t="s">
-        <v>774</v>
+        <v>735</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -5042,10 +5059,10 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="C167" t="s">
-        <v>775</v>
+        <v>736</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -5053,10 +5070,10 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="C168" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -5064,10 +5081,10 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="C169" t="s">
-        <v>777</v>
+        <v>738</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -5075,10 +5092,10 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="C170" t="s">
-        <v>778</v>
+        <v>739</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -5086,10 +5103,10 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C171" t="s">
-        <v>779</v>
+        <v>740</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -5097,10 +5114,10 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="C172" t="s">
-        <v>780</v>
+        <v>741</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -5108,10 +5125,10 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="C173" t="s">
-        <v>781</v>
+        <v>742</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -5119,10 +5136,10 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="C174" t="s">
-        <v>782</v>
+        <v>743</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -5130,10 +5147,10 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C175" t="s">
-        <v>783</v>
+        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -5141,10 +5158,10 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="C176" t="s">
-        <v>784</v>
+        <v>745</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -5152,10 +5169,10 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="C177" t="s">
-        <v>785</v>
+        <v>746</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -5163,10 +5180,10 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="C178" t="s">
-        <v>786</v>
+        <v>747</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -5174,10 +5191,10 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="C179" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -5185,10 +5202,10 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="C180" t="s">
-        <v>788</v>
+        <v>749</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -5196,10 +5213,10 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="C181" t="s">
-        <v>789</v>
+        <v>750</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -5207,10 +5224,10 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="C182" t="s">
-        <v>790</v>
+        <v>751</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -5218,10 +5235,10 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C183" t="s">
-        <v>791</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -5229,10 +5246,10 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="C184" t="s">
-        <v>792</v>
+        <v>753</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -5240,10 +5257,10 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C185" t="s">
-        <v>793</v>
+        <v>754</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -5251,10 +5268,10 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="C186" t="s">
-        <v>794</v>
+        <v>755</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -5262,10 +5279,10 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="C187" t="s">
-        <v>795</v>
+        <v>756</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -5273,10 +5290,10 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C188" t="s">
-        <v>796</v>
+        <v>757</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -5284,10 +5301,10 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="C189" t="s">
-        <v>797</v>
+        <v>758</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -5295,10 +5312,10 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="C190" t="s">
-        <v>798</v>
+        <v>759</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -5306,10 +5323,10 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="C191" t="s">
-        <v>799</v>
+        <v>760</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -5317,10 +5334,10 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="C192" t="s">
-        <v>800</v>
+        <v>761</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -5328,10 +5345,10 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="C193" t="s">
-        <v>801</v>
+        <v>762</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -5339,10 +5356,10 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="C194" t="s">
-        <v>802</v>
+        <v>763</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -5350,10 +5367,10 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="C195" t="s">
-        <v>803</v>
+        <v>764</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -5361,10 +5378,10 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C196" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -5372,10 +5389,10 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C197" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -5383,10 +5400,10 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="C198" t="s">
-        <v>804</v>
+        <v>765</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -5394,10 +5411,10 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="C199" t="s">
-        <v>805</v>
+        <v>766</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -5405,10 +5422,10 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="C200" t="s">
-        <v>806</v>
+        <v>767</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -5416,10 +5433,10 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="C201" t="s">
-        <v>807</v>
+        <v>768</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -5427,10 +5444,10 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="C202" t="s">
-        <v>808</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -5438,10 +5455,10 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="C203" t="s">
-        <v>809</v>
+        <v>770</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -5449,10 +5466,10 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="C204" t="s">
-        <v>810</v>
+        <v>771</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -5460,10 +5477,10 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="C205" t="s">
-        <v>811</v>
+        <v>772</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -5471,10 +5488,10 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="C206" t="s">
-        <v>812</v>
+        <v>773</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -5482,10 +5499,10 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="C207" t="s">
-        <v>813</v>
+        <v>774</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -5493,10 +5510,10 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="C208" t="s">
-        <v>814</v>
+        <v>775</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -5504,10 +5521,10 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="C209" t="s">
-        <v>815</v>
+        <v>776</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -5515,10 +5532,10 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="C210" t="s">
-        <v>816</v>
+        <v>777</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -5526,10 +5543,10 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="C211" t="s">
-        <v>817</v>
+        <v>778</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -5537,10 +5554,10 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="C212" t="s">
-        <v>818</v>
+        <v>779</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -5548,10 +5565,10 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="C213" t="s">
-        <v>819</v>
+        <v>780</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -5559,10 +5576,10 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="C214" t="s">
-        <v>820</v>
+        <v>781</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -5570,10 +5587,10 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="C215" t="s">
-        <v>821</v>
+        <v>782</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -5581,10 +5598,10 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="C216" t="s">
-        <v>822</v>
+        <v>783</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -5592,10 +5609,10 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="C217" t="s">
-        <v>823</v>
+        <v>784</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -5603,10 +5620,10 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="C218" t="s">
-        <v>824</v>
+        <v>785</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -5614,10 +5631,10 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="C219" t="s">
-        <v>825</v>
+        <v>786</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -5625,10 +5642,10 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="C220" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,10 +5653,10 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="C221" t="s">
-        <v>827</v>
+        <v>788</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -5647,10 +5664,10 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="C222" t="s">
-        <v>828</v>
+        <v>789</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -5658,10 +5675,10 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="C223" t="s">
-        <v>829</v>
+        <v>790</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -5669,10 +5686,10 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="C224" t="s">
-        <v>830</v>
+        <v>791</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -5680,10 +5697,10 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="C225" t="s">
-        <v>831</v>
+        <v>792</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -5691,10 +5708,10 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="C226" t="s">
-        <v>832</v>
+        <v>793</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -5702,10 +5719,10 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="C227" t="s">
-        <v>833</v>
+        <v>794</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -5713,10 +5730,10 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="C228" t="s">
-        <v>834</v>
+        <v>795</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -5724,10 +5741,10 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="C229" t="s">
-        <v>835</v>
+        <v>796</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -5735,10 +5752,10 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="C230" t="s">
-        <v>836</v>
+        <v>797</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -5746,10 +5763,10 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="C231" t="s">
-        <v>837</v>
+        <v>798</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -5757,10 +5774,10 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="C232" t="s">
-        <v>838</v>
+        <v>799</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -5768,10 +5785,10 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="C233" t="s">
-        <v>839</v>
+        <v>800</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -5779,10 +5796,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="C234" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -5790,10 +5807,10 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="C235" t="s">
-        <v>841</v>
+        <v>802</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -5801,10 +5818,10 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="C236" t="s">
-        <v>842</v>
+        <v>803</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -5812,10 +5829,10 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="C237" t="s">
-        <v>843</v>
+        <v>804</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -5823,10 +5840,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="C238" t="s">
-        <v>844</v>
+        <v>805</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -5834,10 +5851,10 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="C239" t="s">
-        <v>845</v>
+        <v>806</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -5845,10 +5862,10 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="C240" t="s">
-        <v>846</v>
+        <v>807</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -5856,10 +5873,10 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="C241" t="s">
-        <v>847</v>
+        <v>808</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -5867,10 +5884,10 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="C242" t="s">
-        <v>848</v>
+        <v>809</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -5878,10 +5895,10 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="C243" t="s">
-        <v>849</v>
+        <v>810</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -5889,10 +5906,10 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="C244" t="s">
-        <v>850</v>
+        <v>811</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -5900,10 +5917,10 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="C245" t="s">
-        <v>851</v>
+        <v>812</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -5911,10 +5928,10 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="C246" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -5922,10 +5939,10 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="C247" t="s">
-        <v>852</v>
+        <v>813</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -5933,10 +5950,10 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="C248" t="s">
-        <v>853</v>
+        <v>814</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -5944,10 +5961,10 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="C249" t="s">
-        <v>854</v>
+        <v>815</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -5955,10 +5972,10 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="C250" t="s">
-        <v>855</v>
+        <v>816</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -5966,10 +5983,10 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C251" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -5977,10 +5994,10 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="C252" t="s">
-        <v>856</v>
+        <v>817</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -5988,10 +6005,10 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="C253" t="s">
-        <v>857</v>
+        <v>818</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -5999,10 +6016,10 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="C254" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -6010,10 +6027,10 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="C255" t="s">
-        <v>859</v>
+        <v>820</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -6021,10 +6038,10 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="C256" t="s">
-        <v>860</v>
+        <v>821</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -6032,10 +6049,10 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="C257" t="s">
-        <v>861</v>
+        <v>822</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -6043,10 +6060,10 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C258" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -6054,10 +6071,10 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C259" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -6065,10 +6082,10 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="C260" t="s">
-        <v>863</v>
+        <v>824</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -6076,10 +6093,10 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="C261" t="s">
-        <v>864</v>
+        <v>825</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -6087,10 +6104,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="C262" t="s">
-        <v>865</v>
+        <v>826</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -6098,10 +6115,10 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="C263" t="s">
-        <v>866</v>
+        <v>827</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -6109,10 +6126,10 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C264" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -6120,10 +6137,10 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C265" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -6131,10 +6148,10 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="C266" t="s">
-        <v>867</v>
+        <v>828</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -6142,10 +6159,10 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="C267" t="s">
-        <v>868</v>
+        <v>829</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -6153,10 +6170,10 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="C268" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -6164,10 +6181,10 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="C269" t="s">
-        <v>870</v>
+        <v>831</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -6175,10 +6192,10 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="C270" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -6186,10 +6203,10 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="C271" t="s">
-        <v>872</v>
+        <v>833</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -6197,10 +6214,10 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="C272" t="s">
-        <v>873</v>
+        <v>834</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -6208,10 +6225,10 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="C273" t="s">
-        <v>874</v>
+        <v>835</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -6219,10 +6236,10 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="C274" t="s">
-        <v>875</v>
+        <v>836</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -6230,10 +6247,10 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="C275" t="s">
-        <v>876</v>
+        <v>837</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -6241,10 +6258,10 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="C276" t="s">
-        <v>877</v>
+        <v>838</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -6252,10 +6269,10 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="C277" t="s">
-        <v>878</v>
+        <v>839</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -6263,10 +6280,10 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
       <c r="C278" t="s">
-        <v>879</v>
+        <v>840</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -6274,10 +6291,10 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="C279" t="s">
-        <v>880</v>
+        <v>841</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -6285,10 +6302,10 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="C280" t="s">
-        <v>881</v>
+        <v>842</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -6296,10 +6313,10 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="C281" t="s">
-        <v>882</v>
+        <v>843</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -6307,10 +6324,10 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="C282" t="s">
-        <v>883</v>
+        <v>844</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -6318,10 +6335,10 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="C283" t="s">
-        <v>884</v>
+        <v>845</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -6329,10 +6346,10 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="C284" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -6340,10 +6357,10 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="C285" t="s">
-        <v>886</v>
+        <v>847</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -6351,10 +6368,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="C286" t="s">
-        <v>887</v>
+        <v>848</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -6362,10 +6379,10 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="C287" t="s">
-        <v>888</v>
+        <v>849</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -6373,10 +6390,10 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="C288" t="s">
-        <v>889</v>
+        <v>850</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -6384,10 +6401,10 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="C289" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -6395,10 +6412,10 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="C290" t="s">
-        <v>891</v>
+        <v>852</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -6406,10 +6423,10 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="C291" t="s">
-        <v>721</v>
+        <v>682</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -6417,10 +6434,10 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="C292" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -6428,10 +6445,10 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="C293" t="s">
-        <v>893</v>
+        <v>854</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -6439,10 +6456,10 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="C294" t="s">
-        <v>894</v>
+        <v>855</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -6450,10 +6467,10 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="C295" t="s">
-        <v>895</v>
+        <v>856</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -6461,10 +6478,10 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="C296" t="s">
-        <v>896</v>
+        <v>857</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -6472,10 +6489,10 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="C297" t="s">
-        <v>897</v>
+        <v>858</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -6483,10 +6500,10 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="C298" t="s">
-        <v>898</v>
+        <v>859</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -6494,10 +6511,10 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="C299" t="s">
-        <v>899</v>
+        <v>860</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -6505,10 +6522,10 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="C300" t="s">
-        <v>900</v>
+        <v>861</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -6516,10 +6533,10 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="C301" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -6527,10 +6544,10 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="C302" t="s">
-        <v>902</v>
+        <v>863</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -6538,10 +6555,10 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="C303" t="s">
-        <v>903</v>
+        <v>864</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -6549,10 +6566,10 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="C304" t="s">
-        <v>904</v>
+        <v>865</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -6560,10 +6577,10 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="C305" t="s">
-        <v>905</v>
+        <v>866</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -6571,10 +6588,10 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="C306" t="s">
-        <v>906</v>
+        <v>867</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -6582,10 +6599,10 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="C307" t="s">
-        <v>907</v>
+        <v>868</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -6593,10 +6610,10 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C308" t="s">
-        <v>684</v>
+        <v>645</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -6604,10 +6621,10 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="C309" t="s">
-        <v>908</v>
+        <v>869</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -6615,10 +6632,10 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="C310" t="s">
-        <v>909</v>
+        <v>870</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -6626,10 +6643,10 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="C311" t="s">
-        <v>910</v>
+        <v>871</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -6637,10 +6654,10 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="C312" t="s">
-        <v>911</v>
+        <v>872</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -6648,10 +6665,10 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="C313" t="s">
-        <v>911</v>
+        <v>872</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -6659,10 +6676,10 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="C314" t="s">
-        <v>912</v>
+        <v>873</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -6670,10 +6687,10 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="C315" t="s">
-        <v>913</v>
+        <v>874</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -6681,10 +6698,10 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="C316" t="s">
-        <v>914</v>
+        <v>875</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -6692,10 +6709,10 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="C317" t="s">
-        <v>915</v>
+        <v>876</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -6703,10 +6720,10 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="C318" t="s">
-        <v>916</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>

--- a/frenchToEnglishM.xlsx
+++ b/frenchToEnglishM.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnbrooks/Dropbox/R_files/Users/johnbrooks/Dropbox/Synced/R/STAT 5702/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7253BB-A0C5-2843-BC97-182A5C1A5F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304FF0F-C264-CD47-B9E5-D3018D80E778}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="919">
   <si>
     <t>translatedText</t>
   </si>
@@ -1132,11 +1143,6 @@
     <t>We often do more than we should, for example we sometimes take charge of clients' timesheets and take care of making the necessary changes instead of telling the client to do it themselves .</t>
   </si>
   <si>
-    <t>Many transactions with IT are difficult, including E-Store and Mobile Devices.
-E-store purchases, proceeding by budget transfer instead of p.j. adds vagueness in the analysis of the expenses of a sector, as well as to determine if the budget reduction of a sector is related to a purchase, or a budget reduction evaluated by the functional.
-Mobile devices, it is difficult to make corrections to the billing table provided, if a device is not assigned to the right cost center / employee, there is no easy way to have it transferred to the right place for the next billing table.</t>
-  </si>
-  <si>
     <t>The speed of service.</t>
   </si>
   <si>
@@ -1161,9 +1167,6 @@
     <t>Nothing prevents me from giving exceptional service</t>
   </si>
   <si>
-    <t>I always find the answer to my clients to help them even if it is outside my tasks.</t>
-  </si>
-  <si>
     <t>Quick response and mutual assistance.</t>
   </si>
   <si>
@@ -1173,48 +1176,20 @@
     <t>work from home and rapid home equipment deployment.</t>
   </si>
   <si>
-    <t>Any</t>
-  </si>
-  <si>
     <t>I am too new to FAB to be able to answer.</t>
   </si>
   <si>
-    <t>I worked in the CVB branch from March to November during the COVID and I should say that the strong point is the fact of paying less for travel to work</t>
-  </si>
-  <si>
-    <t>Since it has only been 3 days since I changed branches for FAB, this gave me some difficulty in answering the questions asked.</t>
-  </si>
-  <si>
-    <t>I still lack a comfortable desk and a web camera to attend meetings.
-I have to forward invitation emails to my home address and use my personal laptop to attend management meetings.</t>
-  </si>
-  <si>
     <t>The various procedures and policies that serve as a guide for responding to requests and for carrying out effective audits of financial operations.</t>
   </si>
   <si>
     <t>Our sector processes financial transactions and various payments in a timely manner and answers many types of questions.</t>
-  </si>
-  <si>
-    <t>I give clear references and explanations whenever I can in order to educate clients, and they are happy with my answers and tell me regularly.</t>
   </si>
   <si>
     <t>It was more difficult to get answers since we couldn't communicate with clients who might not be working.
 Everything has changed because of this pandemic.</t>
   </si>
   <si>
-    <t>The process of recovering equipment delivered to employees and which must be collected after the pandemic. Give Administration the necessary latitude and flexibility to manage recovery logistics and provision to make life easier for customers.</t>
-  </si>
-  <si>
-    <t>Support to local departments for the preparation of health plans &amp; measures for the reintegration of employees in offices in times of pandemic. An unprecedented project that was developed in partnership with customers after listening to them. Dedicated F&amp;A team always in solution mode, with support from numerous partners.</t>
-  </si>
-  <si>
-    <t>Several directors underlined their great appreciation for the dedication of F&amp;A employees in the context of the pandemic. Testimonials were presented to the M&amp;A management team and from directors.</t>
-  </si>
-  <si>
     <t>Dedicated staff, available and attentive to needs. Always in "solution" mode.</t>
-  </si>
-  <si>
-    <t>We are still waiting for laptops and the purchase of webcams is very limited via purchasing cards. Therefore, we have to wait 20 weeks delivery time when we could buy some through amazon or bestbuy and receive them in less than 2 weeks. We tried to obtain a waiver but to no avail.</t>
   </si>
   <si>
     <t>Our internal rules which often lead us to say no when we have the budget and the staff to provide a service.</t>
@@ -1224,63 +1199,12 @@
 Office Print: Offers very little flexibility and often minimizes customer needs by emphasizing percentage of use.</t>
   </si>
   <si>
-    <t>The development of our spaces following the arrival of the Covid.</t>
-  </si>
-  <si>
-    <t>Room layout, courteous service when requesting the layout and telephony.</t>
-  </si>
-  <si>
-    <t>Our security colleagues took over several tasks. Particularly computer security during deployment. (Suitcase identification) and support for cell phone deployment. What made the experience enjoyable was the initiative that the team took. They did not wait for a request to act.</t>
-  </si>
-  <si>
-    <t>- The slowness of obtaining instructions regarding the purchase of furniture for teleworkers, the return of chairs, etc.
-- The opportunities were great. We could have used our employees to deliver workloads to teleworkers. We had the resources and the equipment, but our policies do not allow it.</t>
-  </si>
-  <si>
-    <t>I recently informed my headquarters that I would have an operational issue if certain digital mailroom integrators were to deploy during the next peak period. My colleagues in operations seemed to indicate to me that some business lines were about to be taken over by the virtual mail room.
-We have received no response to our requests. We have followed up and are not getting any response.</t>
-  </si>
-  <si>
-    <t>Mandatory training. Difficult to find the courses, difficult to confirm that the course is complete, difficult to have a complete and up-to-date list.</t>
-  </si>
-  <si>
     <t>responded to all requests.</t>
   </si>
   <si>
-    <t>Follow-up of all requests. If not within the required time, notify the customer in advance that it will be late.</t>
-  </si>
-  <si>
-    <t>the administration group. Very cooperative and collaborator. Very professional in their approach.</t>
-  </si>
-  <si>
-    <t>I have a small work table for my computer and my extra monitor. I have to write leaning over my bed because I have no more room to do it on my little table. I have to shell out for a decent office at my own expense. Security is not open to providing us with a suitable office.</t>
-  </si>
-  <si>
     <t>Security volume: Add a search with keywords. Currently, we have to search by going through all the titles, which creates longer delays.</t>
   </si>
   <si>
-    <t>When an employee leaves, a Departure Notice must be completed by the manager, which is not always done. I write to the manager, providing him with the link to complete the Notice of Departure because many do not know where to find it. I did a research on Savoir Faire and since that time I have attached this link to make it easier for them and explain all the steps. Security works from the completed Notices of Departure but the forms for the Notices of Departure are part of the managers' environment.</t>
-  </si>
-  <si>
-    <t>When a security incident needs to be reported, I assist the person at all stages in order to secure them and to ensure that all elements have been declared. This happens often, especially in cases of suicide threats where support is appreciated.</t>
-  </si>
-  <si>
-    <t>Technical problems with IT are recurrent.</t>
-  </si>
-  <si>
-    <t>Regarding the following questions:
-I am given opportunities to innovate and the freedom to innovate, that is, to generate new ideas, improve processes, develop new technologies and find other approaches to service delivery.
-* I feel I am given opportunities to share my ideas with my peers and supervisors.
-Management does not create opportunities, it is rather on my own that I suggest ideas and ways of doing things when I realize that there are gaps or processes that need to be improved. The questions could be worded differently.
-In certain questions, there are the choice of answers which are in my opinion identical: More or less agree and More or less disagree.
-In the table to be completed:
-While we recognize that all of the following aspects of service quality are important, we ask that you rank them in order of importance to you, with 1 being the most important and 7 being the least important.
-1 - More important 2 3 4 5 6 7 - Less important
-There are two definitions that I think are the same: To be reliable and to be trustworthy.
-In closing, I would like to tell you that I get a rating of 4 in my performance reviews. This year, the management of the Quebec region decided that this level of performance would not be granted. So I had a rating of 3 and yet my innovations, the quality of my service, my dedication since the pandemic have remained constant. I had to overcome many challenges by training employees at a distance. I had no procedure and I made one that I shared with the whole team. I take pride in doing my job well. Emails from senior management congratulating us on our engagement during this pandemic, our resilience and everything in between don't reflect the little recognition on the ground. My level 3, I have it in my heart. I am from Generation X who, like my parents, left their hearts to work. For recognition, we will come back.
-Be trustworthy</t>
-  </si>
-  <si>
     <t>Normal mail operating procedures. They should be kept up to date on a more regular basis.</t>
   </si>
   <si>
@@ -1290,60 +1214,30 @@
     <t>The ability of mailrooms to help each other.</t>
   </si>
   <si>
-    <t>The lack of information from the program areas for the routing of documents complicated the work of the mail rooms.</t>
-  </si>
-  <si>
-    <t>A second instructor would not be too much for someone who works in finance. Also, a connector-box to connect everything.</t>
-  </si>
-  <si>
     <t>none of these answers</t>
   </si>
   <si>
     <t>The RFAS system is obsolete and could be changed to make our job easier.</t>
   </si>
   <si>
-    <t>In general, projects are done fairly quickly, especially when they are urgent. We have a great collaboration with owners, BLOs, PSPCs and security which helps enormously.</t>
-  </si>
-  <si>
-    <t>By monitoring ongoing projects every month. Also being super well organized in my work.</t>
-  </si>
-  <si>
     <t>The Assistant Director took the time to call each employee to check in and make sure that we are well and that we are not missing anything.</t>
   </si>
   <si>
     <t>Everything is fine, but the computer is a little slower than before.</t>
   </si>
   <si>
-    <t>I find it easy to work from home anyway. I am currently giving training to a new employee and I realize that it is easy with MS team, especially since we can share our screens.</t>
-  </si>
-  <si>
     <t>All of the above since it always depends on the type and level of complexity of each service request</t>
   </si>
   <si>
-    <t>During the period of massive hiring, the security department makes every effort to facilitate the process of security screening on staff such as designing a checklist, training new managers who will hire new employees and getting involved in all stages of this process.</t>
-  </si>
-  <si>
     <t>Support the main members of the building's emergency organization for the training of new members, the planning of exercises and real events.</t>
   </si>
   <si>
     <t>Administration</t>
   </si>
   <si>
-    <t>Not being able to take fingerprints in person will significantly increase staff security screening processing time. Considering that these candidates (new employees) will also have to come to our premises for several months to execute tax programs deemed critical, our ability to provide excellent service is therefore compromised.</t>
-  </si>
-  <si>
     <t>I am often told that I am efficient in handling requests.</t>
   </si>
   <si>
-    <t>The kindness of the people. The help they gave me so that I understood well despite their heavy workload. Their efficiency.</t>
-  </si>
-  <si>
-    <t>sometimes it is easier to talk face to face to better understand certain details. With Teams, it is now possible to do this. I really appreciate.</t>
-  </si>
-  <si>
-    <t>I find that people are very available to answer my questions. It's like we're in the office. I really appreciate.</t>
-  </si>
-  <si>
     <t>Travel plan. We have to make a travel plan and thereafter, no verification is carried out to ensure that it is respected.</t>
   </si>
   <si>
@@ -1351,54 +1245,18 @@
   </si>
   <si>
     <t>MS Team.</t>
-  </si>
-  <si>
-    <t>budget transfers between AC / Regions / ITB / SPC.
-a national committee is underway to resolve this, overseen by Horizontality</t>
   </si>
   <si>
     <t>Regional finance provides enormous support to regional program advisers.
 Often, the regional advisers come from the programs and have the technical knowledge of their programs, but the financial aspect is often new to them. Regional finance provides them with undeniable financial support. Very nice collaboration! the Regional Management Team appreciates the involvement of Finance in the smooth running of the region.</t>
   </si>
   <si>
-    <t>The many AD-HOC analyzes requested by the Region or an office in our region. Regional and local analyzes.</t>
-  </si>
-  <si>
     <t>TEAM (presentation by procurement)</t>
   </si>
   <si>
-    <t>In terms of Finance, we found that the delivery of services was not disrupted excessively since the COVID.
-Teleworking and the tools ((in Network (ie little paper), TEAM, WEBEX, Outlook and cellular)) help us to maintain a quality service and appreciated by the customers (colleagues, program advisers, Directors, Deputy Commissioner , etc ...)</t>
-  </si>
-  <si>
-    <t>The regional IFs must remain in the regions in order to offer quality services adapted to the needs of the players in place. Regional and local needs are different from national needs.</t>
-  </si>
-  <si>
-    <t>Several methods as needed. In person, Teams or phone are my favorites</t>
-  </si>
-  <si>
-    <t>My clients do not have access to enough reference material or trainings with a trainer.</t>
-  </si>
-  <si>
-    <t>The tuition form if6-003 approval process should read the dfa table and should count as a 32 approval. Currently the manager must approve and then resign electronically to re-approve.</t>
-  </si>
-  <si>
-    <t>We are in the process of developing a new Infozone page and a logo.
-We standardized the procedures between two teams at two different sites so that there is no difference for the client.</t>
-  </si>
-  <si>
     <t>As a department, the ban on communicating with our clients made our work very difficult and created a certain work backlog. Everything is back to normal now.</t>
   </si>
   <si>
-    <t>I believe that the DGFA must become more visible to our customers. Ex: Having a link on the first page of Infozone like HR and IT. I also believe that we must also above all work to make known what the teams of the divisions do to the other teams of the division and to the client. For clients, we are finance and sometimes they have trouble figuring out where to send their questions.</t>
-  </si>
-  <si>
-    <t>Very long to receive BI policies, procedures and guidelines. Questions from our customers remain unanswered or with long delays creating expectations and dissatisfaction. Lack of guidance in some cases. HR structures not uniform and questioned for years. Too many similar reports to provide to different bodies. Bilingualism of documents to be reviewed (documents are not always sent in both languages). Often very short response times.</t>
-  </si>
-  <si>
-    <t>All BI projects are done with professionalism and diligence, despite the various obstacles and partnerships external to the ARC which are not always optimal (eg SPC).</t>
-  </si>
-  <si>
     <t>See question above</t>
   </si>
   <si>
@@ -1408,13 +1266,7 @@
     <t>Questions still unanswered about information security. All BI projects in the region are waiting to know if cell phones or other methods will allow teleworking in the future. If so, what will be the percentage of teleworker and office occupancy?</t>
   </si>
   <si>
-    <t>Important to pay attention to our people ... since the start of the pandemic, the workload for many, including BIs, has increased dramatically while for many other CRA employees the workload has decreased dramatically . On the BI side, in addition to major projects made more difficult due to COVID, all the distancing issues have been added as well as reflections on the future of work. From a workload that was already full, we now have many other complex mandates where many unknowns remain.</t>
-  </si>
-  <si>
     <t>There is a lack of concrete training related to my work</t>
-  </si>
-  <si>
-    <t>Security volume and Titus. Both should have a search magnifier</t>
   </si>
   <si>
     <t>We give prompt and courteous service</t>
@@ -1430,43 +1282,12 @@
     <t>We serve the employees of our management. We ordered chairs for employees which were delivered to the employee's home.</t>
   </si>
   <si>
-    <t>no, I think we are now well adapted and we are trying to offer the best support to our employees and we are updating our procedures to adapt to our new reality, but it is going well.</t>
-  </si>
-  <si>
     <t>customer service is important to me and I am proud to work for the Agency.</t>
   </si>
   <si>
-    <t>in our team we receive the various requests from the management, it may be Rh requests, reimbursement, endowments, purchase of equipment or others. We do everything possible to meet these requests quickly, making sure we understand our customers' real needs. We advise our clients when they do not have enough information on how requests should be submitted and we make sure to inform them of the different stages of processing their requests.</t>
-  </si>
-  <si>
-    <t>We regularly receive compliments from our customers, especially when their request is processed quickly or when we make sure to double-check with them the information provided when we detect anomalies in the requests because these anomalies can significantly delay the processing of requests. Our customers are grateful because they know that we are there to check behind them and that we feed them back to make the necessary corrections.</t>
-  </si>
-  <si>
     <t>the fact that this person took the trouble to call me on teams to share their screen and show me exactly where to go and what to do to resolve my case.</t>
   </si>
   <si>
-    <t>The contracts that the agency puts in place should all be able to deliver to a home since currently the work of many is at home.</t>
-  </si>
-  <si>
-    <t>I will frequently open an ASP / Winfast ticket for my clients instead of directing them to do so. I believe that if he contacts me I should help them and not direct them to another place. I try to serve my clients as I would like to be served.</t>
-  </si>
-  <si>
-    <t>Help them no matter if their request is in my field of work or not instead of making them run left and right.</t>
-  </si>
-  <si>
-    <t>Our clients would like us to provide more services, but in some cases, the red tape up to our functional level prevents us from doing so. In the digital age which is developing even more in times of pandemic, the DGFA could for example take over the delivery of parcels at home or offer the packaging service, because the sectors are not equipped instead of leaving its customers interns trying to find different carriers.</t>
-  </si>
-  <si>
-    <t>The Winfast application could be optimized. In fact, I would go for something similar to the IT portal. We could have the DGFA portal where it would be easy for our customers to find their way through our different branches (Finance, Security, Administration, etc.) Customers never know which file to choose in Winfast, not to mention the sub-choices once the first branch has been selected.
-In terms of policies, that for the Courier sector where it is not allowed to offer the shipping service for parcels other than Canada Post in connection with the activities of the Courier. Paper is on the decline and the number of employees is shrinking. Our internal customers would be happy to be able to count on our packaging and shipping services, especially in this time of a pandemic. We have a loading dock and the necessary equipment to accomplish these tasks. Personally, I find it curious that we ask a clerk from a sector at the other end of the building to come and acknowledge receipt of his package or to ask him to equip himself to carry out the repair himself. 'packing and taking care of the process of shipping the package and the only thing we do at our level is to take it to the Courier's secure gates and put it on the edge of the door for a courier to pick it up .</t>
-  </si>
-  <si>
-    <t>We have grouped together the purchase of electric tables (IPRT) in our Planning sector in order to facilitate the process for our internal customers and thus avoid delays and misunderstanding on their part. We have developed tools to facilitate the process and our customers are very satisfied with this service offered.</t>
-  </si>
-  <si>
-    <t>Support for the purchase of chairs. As much for adaptation measures as the purchasing process in Synergie. I even made a simplified guide for local clerks / assistants bringing together all the procurement information, but summarized in one step-by-step. Also, at the start of the pandemic, employees had to claim their travel expenses in a way other than usual. I also made a guide and gave my phone support to the clerks / assistants as well as their employees as they were not comfortable with the system.</t>
-  </si>
-  <si>
     <t>The arrival of Teams has improved this point, because we can now share our screens to support customers.</t>
   </si>
   <si>
@@ -1476,43 +1297,12 @@
     <t>support for CAS users. processing of requests (Winfast) in the USF.</t>
   </si>
   <si>
-    <t>reviewing documents to ensure the quality of both official languages and compliance with guidelines, policies, etc.</t>
-  </si>
-  <si>
     <t>no impact on my ability to provide excellent service.</t>
   </si>
   <si>
-    <t>no comments.Thank you.</t>
-  </si>
-  <si>
     <t>I find that there is a lot of ambiguity on several policies. That leaves room for several interpretations and during the revisions I find that too many important points are taken out.</t>
   </si>
   <si>
-    <t>I don't measure success in my opinion, it is important to provide impeccable customer service every day. Then even if the request is not an integral part of my position. Beyond the procedures, there is common sense and initiative. A rare commodity these days.</t>
-  </si>
-  <si>
-    <t>Sometimes I get compliments from internal employees and even from other offices who needed my help. I just think I try to help them the best of my knowledge and give them a service even if I have to do some of the work that is not my responsibility in order to make it easier for them. It is on a case-by-case basis.</t>
-  </si>
-  <si>
-    <t>The fact of not having been adequately equipped at home from the start slowed down my work and even that I had to stop for a few weeks due to problems already known to my employer.</t>
-  </si>
-  <si>
-    <t>The health of employees is important in order to be able to provide adequate and superior service.</t>
-  </si>
-  <si>
-    <t>Several policies / processes in human resources, in various portfolios. Fortunately, the transformation of services at the HRD is also underway!</t>
-  </si>
-  <si>
-    <t>If we do not have the answer to the customer's question on the spot, we send an acknowledgment of receipt stating that we must do some research in order to provide an adequate answer and that we will respond as soon as possible. In short, at a minimum, you have to give a sign of life so that the client knows that their request is being taken care of.</t>
-  </si>
-  <si>
-    <t>For tools, there is still the office because now teleworking but the rest is OK.
-For training, there are not many offered and it is not always easy to find it in connection with work in the regions. I am an accountant member and to keep my designation I need a certain number of hours per year and I sometimes have difficulty achieving it.</t>
-  </si>
-  <si>
-    <t>We still have a personalized contact. Customers can reach us directly and I think they appreciate that.</t>
-  </si>
-  <si>
     <t>Written response (often) clear and quick</t>
   </si>
   <si>
@@ -1523,15 +1313,6 @@
   </si>
   <si>
     <t>The fact that we have to work with new tools.</t>
-  </si>
-  <si>
-    <t>The winfast tool is obsolete. When we compare it to that of IT, we have an opportunity to improve our services by making this tool up to date, especially with telework.</t>
-  </si>
-  <si>
-    <t>Offer more flexibility on our policies. Often times, we apply the exact procedure when every situation has its own particularities. We exist because of the client we serve and we often have to reject their request following certain strict policies. We will have great job opportunities with remote work and we must seize these opportunities to better support the customer at home.</t>
-  </si>
-  <si>
-    <t>The commitment of F&amp;A employees to covid-19 has been incredible in securing work environments and continuing to provide service despite the dangers of the pandemic.</t>
   </si>
   <si>
     <t>Employee engagement</t>
@@ -1574,15 +1355,9 @@
     <t>Direct customers when it comes to non-contract purchases following an IPRT request</t>
   </si>
   <si>
-    <t>Provide as much relevant information as possible to answer customer questions. Follow up on completed requests to ensure the customer was satisfied.</t>
-  </si>
-  <si>
     <t>The dedication of the person who makes sure to provide A + service by following up on a completed request.</t>
   </si>
   <si>
-    <t>Technical training on our work tools and material security</t>
-  </si>
-  <si>
     <t>Many</t>
   </si>
   <si>
@@ -1595,46 +1370,21 @@
     <t>IPRT</t>
   </si>
   <si>
-    <t>I take care of the process of purchasing furniture from IPRT requests so that the employee receives what is good for him in the best conditions.
-IPRT versus the moratorium on buying is still an issue in requests.</t>
-  </si>
-  <si>
     <t>Fast and courteous service with the why and how so that the customer is satisfied, even if we have to answer no to the request.</t>
   </si>
   <si>
     <t>Explanations provided on time.</t>
   </si>
   <si>
-    <t>Sometimes writings are not enough. You have to take the time to make a call too.</t>
-  </si>
-  <si>
-    <t>All the employees in the Administration sector have worked very hard since the start of the COVID-19 pandemic, the employees have been 'critical services' and they have kept a very positive attitude - while being present on site at all the sites. Very quickly, we put in place distancing measures so that our employees present on site are safe. I am very proud of the effort that all employees put in, and this at all levels - from SP-02s to mail and general services, team leader, manager, DA and down to our regional director. Daily communication (conference call, etc.) between the different Admin teams in all provinces and our different functionalities allowed us to respond to questions and concerns raised by our customers and our employees.</t>
-  </si>
-  <si>
-    <t>Our great availability and efficiency are greatly appreciated by the various site management teams - whether for an emergency (cleaning request for confirmed COVID-19 cases, water infiltration, demonstration in a parking lot, bedbug detection, etc.) .</t>
-  </si>
-  <si>
-    <t>The speed, the professionalism of the employees which gives us excellent service day after day. For example: Procurement team employees managed to find suppliers for disinfectant wipes and hand soap when there was a shortage caused by the pandemic - without them we would not have been able to make safe access to our sites.</t>
-  </si>
-  <si>
     <t>I believe that we should modify our service portfolio in order to offer fit-out and other services to all of our clients; whether working from home or at the office. We should develop new tasks for our employees so that they can offer new services for teleworking employees (fitting out, retrieving equipment, sending correspondence, etc.).</t>
   </si>
   <si>
     <t>I have always met the expectations of employees</t>
   </si>
   <si>
-    <t>Respond quickly to customer demand</t>
-  </si>
-  <si>
     <t>n / a</t>
   </si>
   <si>
-    <t>It's been several months since I asked for training from Excell and more, for the team and me. It doesn't work out, so I do what I can and I'm sorry that my team members are suffering without even knowing it.</t>
-  </si>
-  <si>
-    <t>telep. emails, teams</t>
-  </si>
-  <si>
     <t>I strive to give them the best service as soon as possible</t>
   </si>
   <si>
@@ -1642,39 +1392,12 @@
   </si>
   <si>
     <t>Education assistance policies - reimbursement of tuition fees.</t>
-  </si>
-  <si>
-    <t>We issue reimbursement for travel expenses within a 5 business day service standard 99.5% of the time.
-In addition, all our questions from our customers received via Winfast are dealt with within the same day or at the latest, the next morning.</t>
-  </si>
-  <si>
-    <t>We regularly give quality advice to travelers and managers. In addition, we provide advice and advice on various financial policies in addition to answering all 1st line questions on the SAE regarding accounting procedures and ledger accounts.</t>
-  </si>
-  <si>
-    <t>The quality of the advice received from the security sector with regard to the numerous exemptions and action in the field of the development sector (including telephony).</t>
   </si>
   <si>
     <t>Technical design guide.
 COMSEC</t>
   </si>
   <si>
-    <t>Our work sector proceeds to the issuance of several hundred reliability status each year in a very short time at the request of the work sectors wishing to proceed with the hiring.</t>
-  </si>
-  <si>
-    <t>Respond to requests with happiness and a smile in your voice.
-Also, respond to our clients using referrals.</t>
-  </si>
-  <si>
-    <t>The Covid made me realize that it was possible to meet customer requests even when they were not in the office.
-I also realized that it is also possible to work with CRA partners who are not in our sector but who can help us in the delivery of our services.</t>
-  </si>
-  <si>
-    <t>I am very proud to work within F&amp;A and to offer exemplary service to our clients, but I don't like Winfast !!!</t>
-  </si>
-  <si>
-    <t>respond to requests on short notice when possible by being flexible to accommodate the customer as possible</t>
-  </si>
-  <si>
     <t>Inform customers of the arrival of orders and scan the order form so that they can track their purchases remotely with telework</t>
   </si>
   <si>
@@ -1697,37 +1420,13 @@
     <t>Speed of service</t>
   </si>
   <si>
-    <t>The travel policy, hospitality, has been changed this year and we are still waiting for the procedures to be followed. Of course, we don't need it right now because there is no travel or welcome, but I think it's time to learn the most, since our workload is low.</t>
-  </si>
-  <si>
-    <t>We answer external questions. Questions from our customers in order to have procedures or procedures to follow or even solve certain problems such as this supplier has not received their payment, etc ... We have tools to help us find the information and we respond courteously and i will say very quickly. Customers are well served.</t>
-  </si>
-  <si>
-    <t>Our managers are present every day. They make our life easier every day. When I experienced a crisis situation at home, I was understood and I had flexibility in the schedule. We have been provided with the necessary equipment for the accomplishment of our work, they are present and I am very grateful.</t>
-  </si>
-  <si>
-    <t>It hasn't changed the way I provide excellent service. It's just that I haven't really been in the service for a few weeks. I take care of translating internal procedures and arranging them. So I'm not really in direct contact with customers anymore. But otherwise, before September, we followed the instructions of our officials so as not to overload our customers with emails. So, we had to try to solve the problems by trying as little as possible to question and make the requests.</t>
-  </si>
-  <si>
-    <t>Thank you to the Directorate General of Finance and Administration for the excellent support to their employees.</t>
-  </si>
-  <si>
     <t>The creation of OneNote for the team and the assistants</t>
   </si>
   <si>
-    <t>I give unparalleled service, that is to say that I give more than the customer asks for.</t>
-  </si>
-  <si>
     <t>The service was the same as usual.</t>
   </si>
   <si>
-    <t>better ergonomics will be appreciated</t>
-  </si>
-  <si>
     <t>printer</t>
-  </si>
-  <si>
-    <t>The process for making purchases. The information is spread over many places, and is not necessarily written in language that appeals to staff who are not always familiar with acquisitions. It is very difficult for an employee who must obtain a good or a service to navigate. In addition, for certain amenities, there is no procedure available on InfoZone altogether. The Place to buy, section for customers, should really be simplified and offer an easy-to-follow process (eg by means of a decision-making flowchart).</t>
   </si>
   <si>
     <t>The service provided and the response time for a request</t>
@@ -1752,25 +1451,9 @@
     <t>To hire new employees with expertise and knowledge according to the position to be filled to minimize the hours of training.</t>
   </si>
   <si>
-    <t>I will always take the time to listen or read requests and respond or best direct the client to the best of my knowledge even outside my area of expertise.</t>
-  </si>
-  <si>
-    <t>Clients often tell me thank you for taking the time to listen and understand their needs even if it is outside of my area of expertise.</t>
-  </si>
-  <si>
-    <t>To put telework into practice overnight and see that it is possible with technology to do our work the same way and keep in touch with people with MS Team.</t>
-  </si>
-  <si>
     <t>In my case not at all. I have been able to offer the exact same services to clients since day 1 of Covid-19.</t>
   </si>
   <si>
-    <t>Very unstable VPN connection and this regularly</t>
-  </si>
-  <si>
-    <t>Tuition fees,
-More information for customers, how to enter payments, necessary documents, how to find GL accounts more easily.</t>
-  </si>
-  <si>
     <t>The sound quality of MS Team sometimes leaves something to be desired. I have difficulty understanding when the discussions are in my second official language.</t>
   </si>
   <si>
@@ -1778,21 +1461,6 @@
   </si>
   <si>
     <t>human ressources</t>
-  </si>
-  <si>
-    <t>Support for participants of the apprenticeship program
-Support for jury members
-Support for managers in hiring new staff</t>
-  </si>
-  <si>
-    <t>It takes longer to get answers and things to be done by HR and the Cluster. Also, there are errors with the ISS system for letters sent to applicants. For example, applicants received a letter stating that they had passed the assessment when they had not.</t>
-  </si>
-  <si>
-    <t>I had an experience that I am the client of a sector and they put the blame on me while it is they who make the mistakes. I wish they would admit their wrongs and see what they could do to improve. It is I who have only done things to improve so that they are better able to provide better service. In addition, I receive a lot of complaints from my clients about them.</t>
-  </si>
-  <si>
-    <t>Hospitality policy - could be clarified
-Winfast process - we could have a better system (ex: chat, like IT) to facilitate access to our customers</t>
   </si>
   <si>
     <t>I sincerely believe that we respond to our clients in a very efficient manner. Our Winfasts are always answered within a few hours at most. And our team makes sure to give reliable answers.</t>
@@ -2800,9 +2468,6 @@
 The approval process for procurement over $ 25,000. As soon as the request goes to the Central Administration, the process blocks. We are asked again and again to confirm and reconfirm our needs, details already provided, to give product specifications ourselves, to look for the products we need in AMAs ourselves. I am not employed by procurement but I'm doing their work for them. </t>
   </si>
   <si>
-    <t>Improve communications (consultations) between operations and the regions. Make sure employees have the right training (and understanding) to use the new tools. They in turn will be able to offer a service better suited to the needs of their customers.</t>
-  </si>
-  <si>
     <t>F&amp;A employees are generally very dedicated and offer personalized and "local" service to internal clients, a service tailored to each individual's needs.</t>
   </si>
   <si>
@@ -2866,6 +2531,349 @@
   </si>
   <si>
     <t>See below</t>
+  </si>
+  <si>
+    <t>I always find the answer for my clients to help them even if it is outside my role.</t>
+  </si>
+  <si>
+    <t>I worked in the CVB branch from March to November during the COVID and I would say that an advantage is paying less for travel to work</t>
+  </si>
+  <si>
+    <t>Since I have only been with the FAB branch for 3 days, I have had difficulty answering the questions asked.</t>
+  </si>
+  <si>
+    <t>I still lack a comfortable desk and a web camera to attend meetings.
+I have to forward invitation emails to my home address and use my personal cell phone to attend management meetings.</t>
+  </si>
+  <si>
+    <t>I give clear references and explanations whenever I can in order to educate clients, and they are happy with my answers and tell me so regularly.</t>
+  </si>
+  <si>
+    <t>The process of recovering equipment delivered to employees and which must be collected after the pandemic. Give Administration the necessary latitude and flexibility to manage recovery logistics and disposal to make life easier for customers.</t>
+  </si>
+  <si>
+    <t>Support to local departments for the preparation of health plans &amp; measures for the reintegration of employees in offices during the pandemic. An unprecedented project that was developed in partnership with customers after listening to them. Dedicated F&amp;A team always in solution mode, with support from numerous partners.</t>
+  </si>
+  <si>
+    <t>Several directors emphasized their great appreciation for the dedication of F&amp;A employees in the context of the pandemic. Directors' testimonials were presented to the F&amp;A management team.</t>
+  </si>
+  <si>
+    <t>We are still waiting for laptops and the purchase of webcams is very limited via purchasing cards. As a result there are delivery delays of 20 weeks when we could buy them through amazon or bestbuy and receive them in less than 2 weeks. We tried to obtain a waiver but to no avail.</t>
+  </si>
+  <si>
+    <t>Arranging our space following the arrival of the Covid.</t>
+  </si>
+  <si>
+    <t>Room layout, courteous service when requesting the layout and telephone service.</t>
+  </si>
+  <si>
+    <t>Our security colleagues took over several tasks. Notably, computer security during deployment. (Suitcase identification) and taking charge of cell phone deployment. What made this a nice experience was the initiative that the team took. They did not wait for a request to act.</t>
+  </si>
+  <si>
+    <t>The slowness of obtaining instructions regarding the purchase of furniture for teleworkers, The return of chairs, etc.
+- The opportunities were great. We could have used our employees to deliver workloads to teleworkers. We had the resources and the equipment, but our policies do not allow it.</t>
+  </si>
+  <si>
+    <t>I recently informed headquarters that I would have an operational issue if certain digital mailroom integrators were to be deployed during the next peak period. My colleagues in operations seemed to indicate to me that some business lines were about to be taken over by the virtual mail room.
+We have received no response to our requests. We have followed up and are not getting any response.</t>
+  </si>
+  <si>
+    <t>Mandatory training. Difficult to find the courses, difficult to confirm that the course was completed, difficult to have a complete and up-to-date list.</t>
+  </si>
+  <si>
+    <t>Responded to all requests. If not within the required time, notified the customer in advance that it will be late.</t>
+  </si>
+  <si>
+    <t>the administration group. Very cooperative and collaboratorative. Very professional in their approach.</t>
+  </si>
+  <si>
+    <t>I have a small work table for my computer and my extra monitor. I have to write leaning over my bed because I have no more room to do it on my little table. I have to pay out of pocket for a decent office at my own expense. Security is not open to providing us with a suitable office.</t>
+  </si>
+  <si>
+    <t>When an employee leaves, a Departure Notice must be completed by the manager, which is not always done. I write to the manager, providing him with the link to complete the Notice of Departure because many do not know where to find it. I did a research on Savoir Faire and since that time I have attached this link to make the task easier for them and explain all the steps. Security works from the completed Notices of Departure but the forms for the Notices of Departure are the managers' area.</t>
+  </si>
+  <si>
+    <t>When a security incident needs to be reported, I assist the person at all stages in order to secure and to ensure that all elements have been declared. This happens often, especially in cases of suicide threats where support is appreciated.</t>
+  </si>
+  <si>
+    <t>Recurring technical problems with IT.</t>
+  </si>
+  <si>
+    <t>Regarding the following questions:
+I am given opportunities to innovate and the freedom to innovate, that is, to generate new ideas, improve processes, develop new technologies and find other approaches to service delivery.
+* I feel I am given opportunities to share my ideas with my peers and supervisors.
+Management does not create opportunities, it is rather of my own initiative that I suggest ideas and ways of doing things when I realize that there are gaps or processes that need to be improved. The questions could be worded differently.
+In certain questions, there are answer choices which are in my opinion identical: More or less agree and More or less disagree.
+In the table to be completed:
+While we recognize that all of the following aspects of service quality are important, we ask that you rank them in order of importance to you, with 1 being the most important and 7 being the least important.
+1 - More important 2 3 4 5 6 7 - Less important
+There are two definitions that I think are the same: To be reliable and to be trustworthy.
+In closing, I would like to tell you that I get a rating of 4 in my performance reviews. This year, the management of the Quebec region decided that this level of performance would not be granted. So I had a rating of 3 and yet my innovations, the quality of my service, my dedication since the pandemic have remained constant. I had to overcome many challenges by training employees at a distance. I had no procedure and I made one that I shared with the whole team. I take pride in doing my job well. Emails from senior management congratulating us on our engagement during this pandemic, our resilience and everything in between don't reflect the little recognition in the field. My level 3, I have it in my heart. I am from Generation X who, like my parents, left their hearts at work. For recognition, we will come back.
+Be trustworthy</t>
+  </si>
+  <si>
+    <t>The lack of information from the program areas responsible for routing documents has complicated the work of the mail rooms.</t>
+  </si>
+  <si>
+    <t>A second monitor would not be too much to ask for someone who works in finance. Also, a connector-box to connect everything.</t>
+  </si>
+  <si>
+    <t>In general, projects are done fairly quickly, especially when they are urgent. We collaborate well with owners, BLOs, PSPCs and security which helps enormously.</t>
+  </si>
+  <si>
+    <t>By monitoring ongoing projects every month. Also being very well organized in my work.</t>
+  </si>
+  <si>
+    <t>I find it easy to work from home despite everything. I am currently training a new employee and I find it easy with MS team, especially since we can share our screens.</t>
+  </si>
+  <si>
+    <t>During the period of massive hiring, the security department made every effort to simplify the security screening process of staff such as designing a checklist, training new managers who would be responsible for hiring new employees and getting involved in all stages of this process.</t>
+  </si>
+  <si>
+    <t>Not being able to take fingerprints in person will significantly increase staff security screening processing time. Given that that these candidates (new employees) will also have to come to our premises for several months to complete tax programs deemed critical, our ability to provide excellent service is therefore compromised.</t>
+  </si>
+  <si>
+    <t>The kindness of the people. The help I was given to understand well despite their heavy workload. Their efficiency.</t>
+  </si>
+  <si>
+    <t>sometimes it is easier to talk face to face to better understand certain details. With Teams, it is now possible to do this. I really appreciate this.</t>
+  </si>
+  <si>
+    <t>I find that people are frequently available to answer my questions. It's as if we were in the office. I really appreciate it.</t>
+  </si>
+  <si>
+    <t>budget transfers between AC / Regions / ITB / SPC.
+a national committee is underway to resolve this, overseen by Horizontalité</t>
+  </si>
+  <si>
+    <t>The many AD-HOC analyses requested by the Region or an office in our region. Regional and local analyses.</t>
+  </si>
+  <si>
+    <t>In terms of Finance, we found that the delivery of services was not disrupted excessively since beginning of the pandemic.
+Teleworking and the tools ((online (ie little paper), TEAM, WEBEX, Outlook and cell)) help us to maintain quality service and is appreciated by clients (colleagues, program advisers, Directors, Deputy Commissioner , etc ...)</t>
+  </si>
+  <si>
+    <t>The regional FIs must remain in the regions in order to offer quality services adapted to the needs of the regional stakeholders. Regional and local needs are different from national needs.</t>
+  </si>
+  <si>
+    <t>Several methods depending on the need. In person, Teams or phone are my favorites</t>
+  </si>
+  <si>
+    <t>My clients do not have access to enough reference material or training with an instructor.</t>
+  </si>
+  <si>
+    <t>The tuition form if6-003 approval process should be read from the dfa table and should count as a 32 approval. Currently the manager must approve and then resign electronically to re-approve.</t>
+  </si>
+  <si>
+    <t>We are in the process of developing a new Infozone page and a logo.
+We standardized the procedures between two teams on two different webpages so that there is no difference for the client.</t>
+  </si>
+  <si>
+    <t>I believe that the DGFA must become more visible to our clients. Ex: Having a link on the first page of Infozone like HR and IT. I also believe that we must work to make known what the  divisions groups do to the other division groups and to the client. For clients, we are finance and sometimes they have trouble figuring out where to send their questions.</t>
+  </si>
+  <si>
+    <t>Very long to receive BI policies, procedures and guidelines. Questions from our clients remain unanswered or with long delays creating expectations and dissatisfaction. Lack of guidance in some cases. HR structures not uniform and questioned for years. Too many similar reports to provide in different situations. Bilingualism of documents to be reviewed (documents are not always sent in both languages). Often very short response times.</t>
+  </si>
+  <si>
+    <t>All BI projects are done with professionalism and diligence, despite the various obstacles and partnerships outside CRA which are not always optimal (eg SPC).</t>
+  </si>
+  <si>
+    <t>Important to pay attention to our people ... since the start of the pandemic, the workload for many, including BIs, has increased dramatically while for many other CRA employees the workload has decreased dramatically . On the BI side, in addition to major projects made more difficult due to COVID, all the distancing issues have been added as well as thoughts on the future of work. From a workload that was already full, we now have many other complex mandates where many unknowns remain.</t>
+  </si>
+  <si>
+    <t>Security volume and Titus. Both should have a search tool</t>
+  </si>
+  <si>
+    <t>no, I think we have now adapted and we are trying to offer the best support to our employees and we are updating our procedures to adapt to our new reality, but it is going well.</t>
+  </si>
+  <si>
+    <t>in our team we receive the various requests from the management, it may be HR requests, reimbursement, endowments, purchase of equipment or others. We do everything possible to answer these requests quickly, making sure we understand our client's real needs. We advise our clients when they do not have enough information on how requests should be submitted and we make sure to inform them of the different stages of processing their requests.</t>
+  </si>
+  <si>
+    <t>We regularly receive compliments from our clients, especially when their request is processed quickly or when we make sure to double-check with them the information provided when we detect anomalies in the requests because these anomalies can significantly delay the processing of requests. Our clients are grateful because they know that we are there to double check and that we provide feedback to make the necessary corrections.</t>
+  </si>
+  <si>
+    <t>The contracts that the agency puts in place should all be able to deliver to a home since currently many employees work from home.</t>
+  </si>
+  <si>
+    <t>I will frequently open an ASP / Winfast ticket for my clients instead of directing them to do so. I believe that if a client contacts me I should help them and not direct them to another place. I try to serve my clients as I would like to be served.</t>
+  </si>
+  <si>
+    <t>Help them even if their request is outside my job description instead of making them run left and right.</t>
+  </si>
+  <si>
+    <t>The Winfast application could be optimized. In fact, I would go for something similar to the IT portal. We could have the DGFA portal where it would be easy for our clients to find their way through our different branches (Finance, Security, Administration, etc.) Customers never know which file to choose in Winfast, not to mention the sub-choices once the first branch has been selected.
+In terms of policies, the one for the Courier sector which is not allowed to offer shipping service for parcels other than Canada Post in connection with the activities of the Courier. Paper is on the decline and the number of employees is shrinking. Our internal customers would be happy to be able to count on our packaging and shipping services, especially during the pandemic. We have a loading dock and the necessary equipment to accomplish these tasks. Personally, I find it curious that we ask a clerk from a sector at the other end of the building to come and acknowledge receipt of his package or to ask him to take care of the packaging the process of shipping the package and the only thing we do at our level is to take it to the Courier's secure gates and put it on the edge of the door for a courier to pick it up .</t>
+  </si>
+  <si>
+    <t>We have consolidated the purchase of electric tables (IPRT) in our Planning sector in order to facilitate the process for our internal customers and thus avoid delays and misunderstanding on their part. We have developed tools to facilitate the process and our customers are very satisfied with this service.</t>
+  </si>
+  <si>
+    <t>Support for the purchase of chairs. For adaptation measures and the purchasing process in Synergie. I even made a simplified guide for local clerks / assistants bringing together all the procurement information, but summarized in one step-by-step. Also, at the start of the pandemic, employees had to claim their travel expenses in a way other than usual. I also made a guide and gave support via telephone to the clerks / assistants as well as their employees as they were not comfortable with the system.</t>
+  </si>
+  <si>
+    <t>reviewing documents to ensure quality in both official languages and compliance with guidelines, policies, etc.</t>
+  </si>
+  <si>
+    <t>I don't measure my successes, it is important to provide impeccable customer service every day. Then even if the request does not fit into my job description. Beyond the procedures, there is common sense and initiative. A rare commodity these days.</t>
+  </si>
+  <si>
+    <t>Sometimes I get compliments from internal employees and even from other offices who needed my help. I just think I try to help them to the best of my knowledge and give them a service even if I have to do work that falls outside of my job description in order to make it easier for them. It is on a case-by-case basis.</t>
+  </si>
+  <si>
+    <t>The fact that I was not adequately equipped at home from the start slowed down my work and I even had to stop for a few weeks due to problems already known to my employer.</t>
+  </si>
+  <si>
+    <t>The health of employees is important to being able to provide adequate and superior service.</t>
+  </si>
+  <si>
+    <t>Several policies / processes in human resources, in various portfolios. Fortunately, the transformation of services at the DGRH is also underway!</t>
+  </si>
+  <si>
+    <t>If we do not have the answer to the customer's question on the spot, we send an acknowledgment of receipt stating that we must do some research in order to provide an adequate answer and that we will respond as soon as possible. In short, at a minimum, you have to let the client know that their request is being taken care of.</t>
+  </si>
+  <si>
+    <t>For tools, there is still the office because we are now teleworking but the rest is OK.
+For training, there i s not much offered and it is not always easy to find it in connection with work in the regions. I am an accountant and to keep my designation I need a certain number of hours per year and I sometimes have difficulty achieving it.</t>
+  </si>
+  <si>
+    <t>We still have personalized contact. Customers can reach us directly and I think they appreciate that.</t>
+  </si>
+  <si>
+    <t>The winfast tool is obsolete. When we compare it to that of IT, we have an opportunity to improve our services by bringin this tool up to date, especially with telework.</t>
+  </si>
+  <si>
+    <t>Offer more flexibility on our policies. Often times, we apply the exact procedure when every situation has its own particularities. We exist because of the client we serve and we often have to reject their request due to certain strict policies. We will have great job opportunities with remote work and we must seize these opportunities to better support the customer at home.</t>
+  </si>
+  <si>
+    <t>The commitment of F&amp;A employees when faced with the challenge of covid-19 has been incredible in securing work environments and continuing to provide service despite the dangers of the pandemic.</t>
+  </si>
+  <si>
+    <t>no comment.Thank you.</t>
+  </si>
+  <si>
+    <t>Provide as much relevant information as possible to answer the client's questions. Follow up on completed requests to ensure the client was satisfied.</t>
+  </si>
+  <si>
+    <t>Technical training on our work tools and important security</t>
+  </si>
+  <si>
+    <t>I take care of the process of purchasing furniture from IPRT requests so that the employee receives what is good for him in the best conditions.
+IPRT versus the moratorium on buying is still an issue on requests.</t>
+  </si>
+  <si>
+    <t>Sometimes writing is not enough. You have to take the time to make a call too.</t>
+  </si>
+  <si>
+    <t>Improve communications (consultations) between support service staff and the regions. Make sure employees have the right training (and understanding) to use the new tools. They in turn will be able to offer a service better suited to the needs of their customers.</t>
+  </si>
+  <si>
+    <t>Many transactions with IT are difficult, including E-Store and Mobile Devices.
+E-store purchases, proceeding by budget transfer instead of p.j. adds vagueness in the analysis of the expenses of a sector, as well as to determine if the budget reduction of a sector is related to a purchase, or a budget reduction evaluated by the support service staff.
+Mobile devices, it is difficult to make corrections to the billing table provided, if a device is not assigned to the right cost center / employee, there is no easy way to have it transferred to the right place for the next billing table.</t>
+  </si>
+  <si>
+    <t>Our clients would like us to provide more services, but in some cases, the administrative burden, through to our support service staff, prevents us from doing so. In the digital age which is developing even more during the pandemic, the DGFA could for example take over the delivery of parcels at home or offer packaging services, since the sectors are not equipped, instead of leaving its customers' interns to try to find different carriers.</t>
+  </si>
+  <si>
+    <t>All the employees in the Administration sector have worked very hard since the start of the COVID-19 pandemic, the employees have been deemed 'essential services' and they have kept a very positive attitude - all while being present on site at all the sites. Very quickly, we put in place distancing measures so that our employees present on site would be safe. I am very proud of the effort that all employees put in, and this at all levels - from SP-02s to mail and general services, team leader, manager, DA and all the way to our regional director. Daily communication (conference call, etc.) between the different Admin teams in all provinces and our different support services allowed us to respond to questions and concerns raised by our clients and our employees.</t>
+  </si>
+  <si>
+    <t>Our great availability and efficiency are greatly appreciated by the various site management teams - regardless of the emergency (cleaning request for confirmed COVID-19 cases, water leak, demonstration in a parking lot, bedbug detection, etc.) .</t>
+  </si>
+  <si>
+    <t>The speed, the professionalism of the employees which give us excellent service day after day. For example: Procurement team employees managed to find suppliers for disinfectant wipes and hand soap when there was a shortage caused by the pandemic - without them we would not have been able to give safe access to our sites.</t>
+  </si>
+  <si>
+    <t>Respond quickly to client demands</t>
+  </si>
+  <si>
+    <t>I have been asking for Excel training, and more, for several months, for both the team and me. The requests don't lead anywhere, so I do what I can and I'm sorry that my team members are suffering without even knowing it.</t>
+  </si>
+  <si>
+    <t>telephone, emails, teams</t>
+  </si>
+  <si>
+    <t>We issue reimbursement for travel expenses within a 5 business day service standard 99.5% of the time.
+In addition, all client questions received via Winfast are dealt with on the same day or at the latest, the next morning.</t>
+  </si>
+  <si>
+    <t>We regularly give quality advice to travelers and managers. In addition, we provide advice and opinions on various financial policies as well as answering all 1st line questions on the SAE regarding accounting procedures and ledger accounts.</t>
+  </si>
+  <si>
+    <t>The quality of the advice received from the security sector with regard to the numerous exemptions and action in the field of the planning sector (including telephony).</t>
+  </si>
+  <si>
+    <t>Our group issues several hundred reliability statuses each year in a very short time at the request of groups wishing to proceed with the hiring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond to requests with happiness and a smile in your voice.
+Also, respond to our clients using references. </t>
+  </si>
+  <si>
+    <t>Covid made me realize that it is possible to answer client requests without being in the office.
+I also realized that it is possible to work with CRA partners who are not in our sector but who can help us in the delivery of our services.</t>
+  </si>
+  <si>
+    <t>I am very proud to work within F&amp;A and to offer exemplary services to our clients, but I don't like Winfast !!!</t>
+  </si>
+  <si>
+    <t>respond to requests promptly when possible by showing flexibility to accommodate the customer as much as possible</t>
+  </si>
+  <si>
+    <t>The travel policy, hospitality, has been changed this year and we are still waiting for the procedures that have to be followed. Of course, we don't need it right now because there is no travel or hospitality, but I think it's a good time to learn as much as possible, since our workload is small.</t>
+  </si>
+  <si>
+    <t>We answer external questions. Questions from our clients in order to have procedures or steps to follow or even solve certain problems such as this supplier has not received their payment, etc ... We have tools to help us find the information and we respond courteously and I'll be quick to say. Customers are well served.</t>
+  </si>
+  <si>
+    <t>Our managers are present every day. They make our life easier every day. When I experienced an emergency at home, I was understood and I had flexibility in my schedule. We have been provided with the necessary equipment for the accomplishment of our work, they are present and I am very grateful.</t>
+  </si>
+  <si>
+    <t>It hasn't changed the way I provide excellent service. It's just that I haven't really been in the service for a few weeks. I take care of translating internal procedures and arranging them. So I'm not really in direct contact with customers anymore. But otherwise, before September, we followed the instructions of our service personnel so as not to overload our customers with emails. So, we had to try to solve the problems by trying not to ask too many questions or make too many requests.</t>
+  </si>
+  <si>
+    <t>Thank you to the Directorate General of Finance and Administration for the excellent support provided to their employees.</t>
+  </si>
+  <si>
+    <t>I give unparalleled service, that is to say that I give more than the client asks for.</t>
+  </si>
+  <si>
+    <t>better ergonomics would be appreciated</t>
+  </si>
+  <si>
+    <t>The process for making purchases. The information is scattered, and is not necessarily written in language that caters to staff who are not familiar with acquisitions. It is very difficult for an employee who must obtain a good or a service to navigate. In addition, for certain products, there is no procedure available on InfoZone. The Place to buy, section for customers, should really be simplified and should offer an easy-to-follow process (eg by means of a decision-making flowchart).</t>
+  </si>
+  <si>
+    <t>I will always take the time to listen or read requests and to respond or to best direct the client to the best of my knowledge even outside my area of expertise.</t>
+  </si>
+  <si>
+    <t>Clients often thank me for taking the time to listen and understand their needs even if it is outside of my area of expertise.</t>
+  </si>
+  <si>
+    <t>To put telework into practice overnight and see that it is possible, with technology, to do our work the same as before and to keep in touch with people using MS Team.</t>
+  </si>
+  <si>
+    <t>Very unstable VPN connection and this happens regularly</t>
+  </si>
+  <si>
+    <t>Tuition fees,
+More information for clients, how to enter payments, necessary documents, how to find GL accounts more easily.</t>
+  </si>
+  <si>
+    <t>Support for participants of the apprenticeship program
+Support for jury members
+Support for managers hiring new staff</t>
+  </si>
+  <si>
+    <t>It takes longer to get answers when things are done by HR and the Cluster. Also, there are errors with the ISS system for letters sent to applicants. For example, applicants received a letter stating that they had passed the assessment when they had not.</t>
+  </si>
+  <si>
+    <t>I had an experience where I was the client of a sector and they put the blame on me when they made the mistakes. I would have liked them to admit they were wrong and to see what they could do to improve. I was the only one to do things to improve so that they are better able to provide better service. In addition, I receive a lot of complaints from my clients about them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitality policy - could be clarified
+Winfast process - we could have a better system (ex: chat, like IT) to facilitate access to our clients </t>
   </si>
 </sst>
 </file>
@@ -3222,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3244,10 +3252,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>882</v>
+        <v>777</v>
       </c>
       <c r="C2" t="s">
-        <v>580</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,7 +3266,7 @@
         <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3266,10 +3274,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>878</v>
+        <v>773</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3277,10 +3285,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>879</v>
+        <v>774</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3288,10 +3296,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>880</v>
+        <v>775</v>
       </c>
       <c r="C6" t="s">
-        <v>584</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3299,10 +3307,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>881</v>
+        <v>776</v>
       </c>
       <c r="C7" t="s">
-        <v>585</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3310,10 +3318,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>884</v>
+        <v>779</v>
       </c>
       <c r="C8" t="s">
-        <v>586</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3321,10 +3329,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>883</v>
+        <v>778</v>
       </c>
       <c r="C9" t="s">
-        <v>586</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3332,10 +3340,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>885</v>
+        <v>780</v>
       </c>
       <c r="C10" t="s">
-        <v>587</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3346,7 +3354,7 @@
         <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>588</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,7 +3365,7 @@
         <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,7 +3376,7 @@
         <v>322</v>
       </c>
       <c r="C13" t="s">
-        <v>590</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,7 +3387,7 @@
         <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>591</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3387,10 +3395,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>886</v>
+        <v>781</v>
       </c>
       <c r="C15" t="s">
-        <v>592</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3398,10 +3406,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>887</v>
+        <v>782</v>
       </c>
       <c r="C16" t="s">
-        <v>593</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3412,7 +3420,7 @@
         <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3423,7 +3431,7 @@
         <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>595</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,7 +3442,7 @@
         <v>326</v>
       </c>
       <c r="C19" t="s">
-        <v>596</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,7 +3453,7 @@
         <v>327</v>
       </c>
       <c r="C20" t="s">
-        <v>597</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3453,10 +3461,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>888</v>
+        <v>783</v>
       </c>
       <c r="C21" t="s">
-        <v>598</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3464,10 +3472,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>889</v>
+        <v>784</v>
       </c>
       <c r="C22" t="s">
-        <v>599</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3478,7 +3486,7 @@
         <v>328</v>
       </c>
       <c r="C23" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3486,10 +3494,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>890</v>
+        <v>785</v>
       </c>
       <c r="C24" t="s">
-        <v>601</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,7 +3508,7 @@
         <v>329</v>
       </c>
       <c r="C25" t="s">
-        <v>602</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,7 +3519,7 @@
         <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>603</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,7 +3530,7 @@
         <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>604</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3530,10 +3538,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>891</v>
+        <v>786</v>
       </c>
       <c r="C28" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,7 +3552,7 @@
         <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>606</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,7 +3563,7 @@
         <v>333</v>
       </c>
       <c r="C30" t="s">
-        <v>607</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,7 +3574,7 @@
         <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>608</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,7 +3585,7 @@
         <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>609</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,7 +3596,7 @@
         <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3599,7 +3607,7 @@
         <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>611</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3607,10 +3615,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>892</v>
+        <v>787</v>
       </c>
       <c r="C35" t="s">
-        <v>612</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,7 +3629,7 @@
         <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>613</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3640,7 @@
         <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>614</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3640,10 +3648,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>893</v>
+        <v>788</v>
       </c>
       <c r="C38" t="s">
-        <v>615</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3651,10 +3659,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>894</v>
+        <v>789</v>
       </c>
       <c r="C39" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3665,7 +3673,7 @@
         <v>340</v>
       </c>
       <c r="C40" t="s">
-        <v>617</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3673,10 +3681,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>895</v>
+        <v>790</v>
       </c>
       <c r="C41" t="s">
-        <v>618</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3684,10 +3692,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>896</v>
+        <v>791</v>
       </c>
       <c r="C42" t="s">
-        <v>619</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="176" x14ac:dyDescent="0.2">
@@ -3695,10 +3703,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>897</v>
+        <v>792</v>
       </c>
       <c r="C43" t="s">
-        <v>620</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3706,10 +3714,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="C44" t="s">
-        <v>621</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3717,10 +3725,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>899</v>
+        <v>793</v>
       </c>
       <c r="C45" t="s">
-        <v>622</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3739,7 @@
         <v>341</v>
       </c>
       <c r="C46" t="s">
-        <v>623</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,7 +3750,7 @@
         <v>342</v>
       </c>
       <c r="C47" t="s">
-        <v>624</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,7 +3761,7 @@
         <v>343</v>
       </c>
       <c r="C48" t="s">
-        <v>625</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3764,7 +3772,7 @@
         <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>626</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3775,7 +3783,7 @@
         <v>345</v>
       </c>
       <c r="C50" t="s">
-        <v>627</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3786,7 +3794,7 @@
         <v>346</v>
       </c>
       <c r="C51" t="s">
-        <v>628</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3797,7 +3805,7 @@
         <v>347</v>
       </c>
       <c r="C52" t="s">
-        <v>629</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3808,7 +3816,7 @@
         <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3819,7 +3827,7 @@
         <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>631</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3830,7 +3838,7 @@
         <v>350</v>
       </c>
       <c r="C55" t="s">
-        <v>632</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3841,7 +3849,7 @@
         <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>633</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3849,10 +3857,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>900</v>
+        <v>794</v>
       </c>
       <c r="C57" t="s">
-        <v>634</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3860,10 +3868,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>901</v>
+        <v>795</v>
       </c>
       <c r="C58" t="s">
-        <v>635</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3874,7 +3882,7 @@
         <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>636</v>
+        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3885,7 +3893,7 @@
         <v>352</v>
       </c>
       <c r="C60" t="s">
-        <v>636</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3893,10 +3901,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>902</v>
+        <v>796</v>
       </c>
       <c r="C61" t="s">
-        <v>637</v>
+        <v>532</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3907,7 +3915,7 @@
         <v>353</v>
       </c>
       <c r="C62" t="s">
-        <v>638</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3918,7 +3926,7 @@
         <v>354</v>
       </c>
       <c r="C63" t="s">
-        <v>639</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3929,7 +3937,7 @@
         <v>355</v>
       </c>
       <c r="C64" t="s">
-        <v>640</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3937,10 +3945,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>903</v>
+        <v>797</v>
       </c>
       <c r="C65" t="s">
-        <v>641</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3951,7 +3959,7 @@
         <v>356</v>
       </c>
       <c r="C66" t="s">
-        <v>642</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3973,7 +3981,7 @@
         <v>358</v>
       </c>
       <c r="C68" t="s">
-        <v>643</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3984,7 +3992,7 @@
         <v>359</v>
       </c>
       <c r="C69" t="s">
-        <v>644</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3995,7 +4003,7 @@
         <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>645</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -4006,7 +4014,7 @@
         <v>360</v>
       </c>
       <c r="C71" t="s">
-        <v>645</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -4014,10 +4022,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>904</v>
+        <v>798</v>
       </c>
       <c r="C72" t="s">
-        <v>646</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -4025,10 +4033,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>905</v>
+        <v>799</v>
       </c>
       <c r="C73" t="s">
-        <v>647</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4036,10 +4044,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>906</v>
+        <v>800</v>
       </c>
       <c r="C74" t="s">
-        <v>648</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4047,10 +4055,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>907</v>
+        <v>801</v>
       </c>
       <c r="C75" t="s">
-        <v>649</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4061,7 +4069,7 @@
         <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>650</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4072,7 +4080,7 @@
         <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>651</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -4083,7 +4091,7 @@
         <v>363</v>
       </c>
       <c r="C78" t="s">
-        <v>652</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4094,7 +4102,7 @@
         <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>653</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4105,7 +4113,7 @@
         <v>365</v>
       </c>
       <c r="C80" t="s">
-        <v>654</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -4116,7 +4124,7 @@
         <v>366</v>
       </c>
       <c r="C81" t="s">
-        <v>655</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="128" x14ac:dyDescent="0.2">
@@ -4124,10 +4132,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>908</v>
+        <v>802</v>
       </c>
       <c r="C82" t="s">
-        <v>656</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4135,10 +4143,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>909</v>
+        <v>803</v>
       </c>
       <c r="C83" t="s">
-        <v>657</v>
+        <v>552</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -4149,7 +4157,7 @@
         <v>367</v>
       </c>
       <c r="C84" t="s">
-        <v>658</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4160,7 +4168,7 @@
         <v>368</v>
       </c>
       <c r="C85" t="s">
-        <v>659</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4168,21 +4176,21 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>910</v>
+        <v>804</v>
       </c>
       <c r="C86" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="160" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
-        <v>369</v>
+      <c r="B87" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="C87" t="s">
-        <v>661</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4190,10 +4198,10 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>911</v>
+        <v>805</v>
       </c>
       <c r="C88" t="s">
-        <v>662</v>
+        <v>557</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4201,10 +4209,10 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>912</v>
+        <v>806</v>
       </c>
       <c r="C89" t="s">
-        <v>663</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -4212,10 +4220,10 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>913</v>
+        <v>807</v>
       </c>
       <c r="C90" t="s">
-        <v>664</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -4223,10 +4231,10 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C91" t="s">
-        <v>665</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4234,10 +4242,10 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C92" t="s">
-        <v>666</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4245,10 +4253,10 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>667</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4256,10 +4264,10 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C94" t="s">
-        <v>668</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -4267,10 +4275,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>914</v>
+        <v>808</v>
       </c>
       <c r="C95" t="s">
-        <v>669</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -4278,10 +4286,10 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C96" t="s">
-        <v>670</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -4289,10 +4297,10 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>915</v>
+        <v>809</v>
       </c>
       <c r="C97" t="s">
-        <v>671</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4300,10 +4308,10 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>916</v>
+        <v>810</v>
       </c>
       <c r="C98" t="s">
-        <v>672</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4311,10 +4319,10 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>917</v>
+        <v>811</v>
       </c>
       <c r="C99" t="s">
-        <v>673</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4322,10 +4330,10 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>918</v>
+        <v>812</v>
       </c>
       <c r="C100" t="s">
-        <v>646</v>
+        <v>541</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4333,10 +4341,10 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C101" t="s">
-        <v>674</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4344,10 +4352,10 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>919</v>
+        <v>813</v>
       </c>
       <c r="C102" t="s">
-        <v>675</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -4355,10 +4363,10 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C103" t="s">
-        <v>676</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -4366,10 +4374,10 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s">
-        <v>677</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -4377,10 +4385,10 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>378</v>
+        <v>814</v>
       </c>
       <c r="C105" t="s">
-        <v>678</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -4388,10 +4396,10 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C106" t="s">
-        <v>679</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -4399,10 +4407,10 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C107" t="s">
-        <v>680</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -4410,10 +4418,10 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C108" t="s">
-        <v>681</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -4421,10 +4429,10 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>798</v>
       </c>
       <c r="C109" t="s">
-        <v>682</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4432,10 +4440,10 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>683</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -4443,10 +4451,10 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>384</v>
+        <v>815</v>
       </c>
       <c r="C111" t="s">
-        <v>684</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -4454,21 +4462,21 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>385</v>
+        <v>816</v>
       </c>
       <c r="C112" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
-        <v>386</v>
-      </c>
-      <c r="C113" t="s">
-        <v>686</v>
+      <c r="B113" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -4476,10 +4484,10 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C114" t="s">
-        <v>687</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4487,10 +4495,10 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C115" t="s">
-        <v>688</v>
+        <v>583</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4498,10 +4506,10 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>389</v>
+        <v>818</v>
       </c>
       <c r="C116" t="s">
-        <v>689</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -4509,10 +4517,10 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C117" t="s">
-        <v>690</v>
+        <v>585</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4520,10 +4528,10 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>819</v>
       </c>
       <c r="C118" t="s">
-        <v>691</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4531,10 +4539,10 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>820</v>
       </c>
       <c r="C119" t="s">
-        <v>692</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4542,10 +4550,10 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>821</v>
       </c>
       <c r="C120" t="s">
-        <v>693</v>
+        <v>588</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4553,10 +4561,10 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C121" t="s">
-        <v>694</v>
+        <v>589</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -4564,10 +4572,10 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>395</v>
+        <v>822</v>
       </c>
       <c r="C122" t="s">
-        <v>695</v>
+        <v>590</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4575,10 +4583,10 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C123" t="s">
-        <v>696</v>
+        <v>591</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4586,10 +4594,10 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C124" t="s">
-        <v>697</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4597,10 +4605,10 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>398</v>
+        <v>823</v>
       </c>
       <c r="C125" t="s">
-        <v>698</v>
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -4608,10 +4616,10 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>399</v>
+        <v>824</v>
       </c>
       <c r="C126" t="s">
-        <v>699</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4619,32 +4627,32 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>825</v>
       </c>
       <c r="C127" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
-        <v>401</v>
+      <c r="B128" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="C128" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
-        <v>402</v>
+      <c r="B129" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="C129" t="s">
-        <v>702</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -4652,10 +4660,10 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>403</v>
+        <v>828</v>
       </c>
       <c r="C130" t="s">
-        <v>703</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -4663,10 +4671,10 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>704</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -4674,10 +4682,10 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>405</v>
+        <v>829</v>
       </c>
       <c r="C132" t="s">
-        <v>705</v>
+        <v>600</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -4685,10 +4693,10 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>830</v>
       </c>
       <c r="C133" t="s">
-        <v>706</v>
+        <v>601</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -4696,10 +4704,10 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>407</v>
+        <v>831</v>
       </c>
       <c r="C134" t="s">
-        <v>707</v>
+        <v>602</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -4707,10 +4715,10 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="C135" t="s">
-        <v>708</v>
+        <v>603</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -4718,10 +4726,10 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>409</v>
+        <v>832</v>
       </c>
       <c r="C136" t="s">
-        <v>709</v>
+        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -4729,10 +4737,10 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>833</v>
       </c>
       <c r="C137" t="s">
-        <v>710</v>
+        <v>605</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -4740,21 +4748,21 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>411</v>
+        <v>834</v>
       </c>
       <c r="C138" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="s">
-        <v>412</v>
-      </c>
-      <c r="C139" t="s">
-        <v>712</v>
+      <c r="B139" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -4762,10 +4770,10 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="C140" t="s">
-        <v>713</v>
+        <v>608</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -4773,10 +4781,10 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="C141" t="s">
-        <v>714</v>
+        <v>609</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -4784,10 +4792,10 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="C142" t="s">
-        <v>714</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -4795,10 +4803,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="C143" t="s">
-        <v>715</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -4806,10 +4814,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>416</v>
+        <v>836</v>
       </c>
       <c r="C144" t="s">
-        <v>716</v>
+        <v>611</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -4817,10 +4825,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>417</v>
+        <v>837</v>
       </c>
       <c r="C145" t="s">
-        <v>717</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -4828,10 +4836,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>348</v>
+        <v>798</v>
       </c>
       <c r="C146" t="s">
-        <v>646</v>
+        <v>541</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -4839,10 +4847,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="C147" t="s">
-        <v>718</v>
+        <v>613</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4850,10 +4858,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="C148" t="s">
-        <v>719</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4861,10 +4869,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>420</v>
+        <v>838</v>
       </c>
       <c r="C149" t="s">
-        <v>720</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -4872,10 +4880,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>421</v>
+        <v>839</v>
       </c>
       <c r="C150" t="s">
-        <v>721</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -4883,10 +4891,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="C151" t="s">
-        <v>722</v>
+        <v>617</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4894,10 +4902,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="C152" t="s">
-        <v>723</v>
+        <v>618</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4905,10 +4913,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>424</v>
+        <v>840</v>
       </c>
       <c r="C153" t="s">
-        <v>724</v>
+        <v>619</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -4916,10 +4924,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C154" t="s">
-        <v>725</v>
+        <v>620</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4927,10 +4935,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>426</v>
+        <v>841</v>
       </c>
       <c r="C155" t="s">
-        <v>726</v>
+        <v>621</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4938,10 +4946,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="C156" t="s">
-        <v>727</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4949,10 +4957,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="C157" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4960,10 +4968,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>429</v>
+        <v>842</v>
       </c>
       <c r="C158" t="s">
-        <v>728</v>
+        <v>623</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -4971,10 +4979,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="C159" t="s">
-        <v>729</v>
+        <v>624</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4982,10 +4990,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>431</v>
+        <v>843</v>
       </c>
       <c r="C160" t="s">
-        <v>730</v>
+        <v>625</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4993,10 +5001,10 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>432</v>
+        <v>844</v>
       </c>
       <c r="C161" t="s">
-        <v>731</v>
+        <v>626</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -5004,10 +5012,10 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>433</v>
+        <v>845</v>
       </c>
       <c r="C162" t="s">
-        <v>732</v>
+        <v>627</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -5015,10 +5023,10 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C163" t="s">
-        <v>733</v>
+        <v>628</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -5026,10 +5034,10 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C164" t="s">
-        <v>734</v>
+        <v>629</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -5037,21 +5045,21 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="C165" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="288" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
-      <c r="B166" t="s">
-        <v>437</v>
-      </c>
-      <c r="C166" t="s">
-        <v>735</v>
+      <c r="B166" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -5059,10 +5067,10 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C167" t="s">
-        <v>736</v>
+        <v>631</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -5070,10 +5078,10 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>439</v>
+        <v>847</v>
       </c>
       <c r="C168" t="s">
-        <v>737</v>
+        <v>632</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -5081,21 +5089,21 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C169" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
-      <c r="B170" t="s">
-        <v>441</v>
+      <c r="B170" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="C170" t="s">
-        <v>739</v>
+        <v>634</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -5103,10 +5111,10 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>442</v>
+        <v>849</v>
       </c>
       <c r="C171" t="s">
-        <v>740</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -5114,10 +5122,10 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>443</v>
+        <v>850</v>
       </c>
       <c r="C172" t="s">
-        <v>741</v>
+        <v>636</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -5125,10 +5133,10 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>444</v>
+        <v>851</v>
       </c>
       <c r="C173" t="s">
-        <v>742</v>
+        <v>637</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -5136,21 +5144,21 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>445</v>
+        <v>852</v>
       </c>
       <c r="C174" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
-      <c r="B175" t="s">
-        <v>446</v>
-      </c>
-      <c r="C175" t="s">
-        <v>744</v>
+      <c r="B175" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -5158,10 +5166,10 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="C176" t="s">
-        <v>745</v>
+        <v>640</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -5169,10 +5177,10 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>448</v>
+        <v>854</v>
       </c>
       <c r="C177" t="s">
-        <v>746</v>
+        <v>641</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -5180,10 +5188,10 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>449</v>
+        <v>855</v>
       </c>
       <c r="C178" t="s">
-        <v>747</v>
+        <v>642</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -5191,10 +5199,10 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>450</v>
+        <v>856</v>
       </c>
       <c r="C179" t="s">
-        <v>748</v>
+        <v>643</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -5202,10 +5210,10 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="C180" t="s">
-        <v>749</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -5213,10 +5221,10 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="C181" t="s">
-        <v>750</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -5224,10 +5232,10 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="C182" t="s">
-        <v>751</v>
+        <v>646</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -5235,10 +5243,10 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>454</v>
+        <v>857</v>
       </c>
       <c r="C183" t="s">
-        <v>752</v>
+        <v>647</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -5246,10 +5254,10 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="C184" t="s">
-        <v>753</v>
+        <v>648</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -5257,10 +5265,10 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>456</v>
+        <v>858</v>
       </c>
       <c r="C185" t="s">
-        <v>754</v>
+        <v>649</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -5268,10 +5276,10 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="C186" t="s">
-        <v>755</v>
+        <v>650</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -5279,10 +5287,10 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="C187" t="s">
-        <v>756</v>
+        <v>651</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -5293,7 +5301,7 @@
         <v>348</v>
       </c>
       <c r="C188" t="s">
-        <v>757</v>
+        <v>652</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -5301,10 +5309,10 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="C189" t="s">
-        <v>758</v>
+        <v>653</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -5312,10 +5320,10 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="C190" t="s">
-        <v>759</v>
+        <v>654</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -5323,10 +5331,10 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>461</v>
+        <v>859</v>
       </c>
       <c r="C191" t="s">
-        <v>760</v>
+        <v>655</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -5334,10 +5342,10 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="C192" t="s">
-        <v>761</v>
+        <v>656</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -5345,10 +5353,10 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>463</v>
+        <v>860</v>
       </c>
       <c r="C193" t="s">
-        <v>762</v>
+        <v>657</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -5356,10 +5364,10 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>464</v>
+        <v>861</v>
       </c>
       <c r="C194" t="s">
-        <v>763</v>
+        <v>658</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -5367,10 +5375,10 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="C195" t="s">
-        <v>764</v>
+        <v>659</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -5381,7 +5389,7 @@
         <v>348</v>
       </c>
       <c r="C196" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -5392,7 +5400,7 @@
         <v>348</v>
       </c>
       <c r="C197" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -5400,10 +5408,10 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>466</v>
+        <v>862</v>
       </c>
       <c r="C198" t="s">
-        <v>765</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -5411,10 +5419,10 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>467</v>
+        <v>863</v>
       </c>
       <c r="C199" t="s">
-        <v>766</v>
+        <v>661</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -5422,10 +5430,10 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>468</v>
+        <v>864</v>
       </c>
       <c r="C200" t="s">
-        <v>767</v>
+        <v>662</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -5433,21 +5441,21 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>469</v>
+        <v>887</v>
       </c>
       <c r="C201" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202" t="s">
-        <v>470</v>
-      </c>
-      <c r="C202" t="s">
-        <v>769</v>
+      <c r="B202" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -5455,10 +5463,10 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>471</v>
+        <v>866</v>
       </c>
       <c r="C203" t="s">
-        <v>770</v>
+        <v>665</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -5466,10 +5474,10 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>472</v>
+        <v>867</v>
       </c>
       <c r="C204" t="s">
-        <v>771</v>
+        <v>666</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -5477,10 +5485,10 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="C205" t="s">
-        <v>772</v>
+        <v>667</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -5488,10 +5496,10 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="C206" t="s">
-        <v>773</v>
+        <v>668</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -5499,10 +5507,10 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="C207" t="s">
-        <v>774</v>
+        <v>669</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -5510,10 +5518,10 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>476</v>
+        <v>868</v>
       </c>
       <c r="C208" t="s">
-        <v>775</v>
+        <v>670</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -5521,10 +5529,10 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
       <c r="C209" t="s">
-        <v>776</v>
+        <v>671</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -5532,10 +5540,10 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>478</v>
+        <v>880</v>
       </c>
       <c r="C210" t="s">
-        <v>777</v>
+        <v>672</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -5543,10 +5551,10 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="C211" t="s">
-        <v>778</v>
+        <v>673</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -5554,10 +5562,10 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>480</v>
+        <v>869</v>
       </c>
       <c r="C212" t="s">
-        <v>779</v>
+        <v>674</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -5565,10 +5573,10 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>481</v>
+        <v>870</v>
       </c>
       <c r="C213" t="s">
-        <v>780</v>
+        <v>675</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -5576,10 +5584,10 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>482</v>
+        <v>871</v>
       </c>
       <c r="C214" t="s">
-        <v>781</v>
+        <v>676</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -5587,10 +5595,10 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>483</v>
+        <v>872</v>
       </c>
       <c r="C215" t="s">
-        <v>782</v>
+        <v>677</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -5598,10 +5606,10 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>484</v>
+        <v>873</v>
       </c>
       <c r="C216" t="s">
-        <v>783</v>
+        <v>678</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -5609,21 +5617,21 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>485</v>
+        <v>874</v>
       </c>
       <c r="C217" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
-      <c r="B218" t="s">
-        <v>486</v>
+      <c r="B218" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="C218" t="s">
-        <v>785</v>
+        <v>680</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -5631,10 +5639,10 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>487</v>
+        <v>876</v>
       </c>
       <c r="C219" t="s">
-        <v>786</v>
+        <v>681</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -5642,10 +5650,10 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="C220" t="s">
-        <v>787</v>
+        <v>682</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -5653,10 +5661,10 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="C221" t="s">
-        <v>788</v>
+        <v>683</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -5664,10 +5672,10 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="C222" t="s">
-        <v>789</v>
+        <v>684</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -5675,10 +5683,10 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="C223" t="s">
-        <v>790</v>
+        <v>685</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -5686,10 +5694,10 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>492</v>
+        <v>877</v>
       </c>
       <c r="C224" t="s">
-        <v>791</v>
+        <v>686</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -5697,10 +5705,10 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>493</v>
+        <v>878</v>
       </c>
       <c r="C225" t="s">
-        <v>792</v>
+        <v>687</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -5708,10 +5716,10 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>494</v>
+        <v>879</v>
       </c>
       <c r="C226" t="s">
-        <v>793</v>
+        <v>688</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -5719,10 +5727,10 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="C227" t="s">
-        <v>794</v>
+        <v>689</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -5730,10 +5738,10 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>496</v>
+        <v>426</v>
       </c>
       <c r="C228" t="s">
-        <v>795</v>
+        <v>690</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -5741,10 +5749,10 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="C229" t="s">
-        <v>796</v>
+        <v>691</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -5752,10 +5760,10 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="C230" t="s">
-        <v>797</v>
+        <v>692</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -5763,10 +5771,10 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="C231" t="s">
-        <v>798</v>
+        <v>693</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -5774,10 +5782,10 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="C232" t="s">
-        <v>799</v>
+        <v>694</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -5785,10 +5793,10 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>501</v>
+        <v>431</v>
       </c>
       <c r="C233" t="s">
-        <v>800</v>
+        <v>695</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -5796,10 +5804,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="C234" t="s">
-        <v>801</v>
+        <v>696</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -5807,10 +5815,10 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>503</v>
+        <v>433</v>
       </c>
       <c r="C235" t="s">
-        <v>802</v>
+        <v>697</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -5818,10 +5826,10 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>504</v>
+        <v>434</v>
       </c>
       <c r="C236" t="s">
-        <v>803</v>
+        <v>698</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -5829,10 +5837,10 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="C237" t="s">
-        <v>804</v>
+        <v>699</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -5840,10 +5848,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>506</v>
+        <v>436</v>
       </c>
       <c r="C238" t="s">
-        <v>805</v>
+        <v>700</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -5851,10 +5859,10 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>507</v>
+        <v>437</v>
       </c>
       <c r="C239" t="s">
-        <v>806</v>
+        <v>701</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -5862,10 +5870,10 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>508</v>
+        <v>881</v>
       </c>
       <c r="C240" t="s">
-        <v>807</v>
+        <v>702</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -5873,10 +5881,10 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="C241" t="s">
-        <v>808</v>
+        <v>703</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -5884,10 +5892,10 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>510</v>
+        <v>882</v>
       </c>
       <c r="C242" t="s">
-        <v>809</v>
+        <v>704</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -5895,10 +5903,10 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="C243" t="s">
-        <v>810</v>
+        <v>705</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -5906,10 +5914,10 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="C244" t="s">
-        <v>811</v>
+        <v>706</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -5917,10 +5925,10 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="C245" t="s">
-        <v>812</v>
+        <v>707</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -5928,21 +5936,21 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="C246" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>247</v>
       </c>
-      <c r="B247" t="s">
-        <v>515</v>
+      <c r="B247" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="C247" t="s">
-        <v>813</v>
+        <v>708</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -5950,10 +5958,10 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>516</v>
+        <v>443</v>
       </c>
       <c r="C248" t="s">
-        <v>814</v>
+        <v>709</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -5961,10 +5969,10 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>517</v>
+        <v>444</v>
       </c>
       <c r="C249" t="s">
-        <v>815</v>
+        <v>710</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -5972,10 +5980,10 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>518</v>
+        <v>884</v>
       </c>
       <c r="C250" t="s">
-        <v>816</v>
+        <v>711</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -5986,7 +5994,7 @@
         <v>348</v>
       </c>
       <c r="C251" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -5994,10 +6002,10 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>519</v>
+        <v>888</v>
       </c>
       <c r="C252" t="s">
-        <v>817</v>
+        <v>712</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -6005,10 +6013,10 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>520</v>
+        <v>889</v>
       </c>
       <c r="C253" t="s">
-        <v>818</v>
+        <v>713</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -6016,10 +6024,10 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>521</v>
+        <v>890</v>
       </c>
       <c r="C254" t="s">
-        <v>819</v>
+        <v>714</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -6027,10 +6035,10 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>522</v>
+        <v>445</v>
       </c>
       <c r="C255" t="s">
-        <v>820</v>
+        <v>715</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -6038,10 +6046,10 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>523</v>
+        <v>446</v>
       </c>
       <c r="C256" t="s">
-        <v>821</v>
+        <v>716</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -6049,10 +6057,10 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>524</v>
+        <v>891</v>
       </c>
       <c r="C257" t="s">
-        <v>822</v>
+        <v>717</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -6060,10 +6068,10 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="C258" t="s">
-        <v>823</v>
+        <v>718</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -6071,10 +6079,10 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="C259" t="s">
-        <v>823</v>
+        <v>718</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -6082,10 +6090,10 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>526</v>
+        <v>892</v>
       </c>
       <c r="C260" t="s">
-        <v>824</v>
+        <v>719</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -6093,10 +6101,10 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>527</v>
+        <v>893</v>
       </c>
       <c r="C261" t="s">
-        <v>825</v>
+        <v>720</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -6104,10 +6112,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>528</v>
+        <v>448</v>
       </c>
       <c r="C262" t="s">
-        <v>826</v>
+        <v>721</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -6115,10 +6123,10 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>529</v>
+        <v>449</v>
       </c>
       <c r="C263" t="s">
-        <v>827</v>
+        <v>722</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -6126,10 +6134,10 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="C264" t="s">
-        <v>823</v>
+        <v>718</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -6137,10 +6145,10 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="C265" t="s">
-        <v>823</v>
+        <v>718</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -6148,21 +6156,21 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="C266" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
-      <c r="B267" t="s">
-        <v>531</v>
+      <c r="B267" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="C267" t="s">
-        <v>829</v>
+        <v>724</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -6170,10 +6178,10 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>532</v>
+        <v>895</v>
       </c>
       <c r="C268" t="s">
-        <v>830</v>
+        <v>725</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -6181,10 +6189,10 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>533</v>
+        <v>896</v>
       </c>
       <c r="C269" t="s">
-        <v>831</v>
+        <v>726</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -6192,10 +6200,10 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
       <c r="C270" t="s">
-        <v>832</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -6203,32 +6211,32 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>535</v>
+        <v>897</v>
       </c>
       <c r="C271" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
-      <c r="B272" t="s">
-        <v>536</v>
+      <c r="B272" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="C272" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
-      <c r="B273" t="s">
-        <v>537</v>
+      <c r="B273" s="1" t="s">
+        <v>899</v>
       </c>
       <c r="C273" t="s">
-        <v>835</v>
+        <v>730</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -6236,10 +6244,10 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>538</v>
+        <v>900</v>
       </c>
       <c r="C274" t="s">
-        <v>836</v>
+        <v>731</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -6247,10 +6255,10 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>539</v>
+        <v>901</v>
       </c>
       <c r="C275" t="s">
-        <v>837</v>
+        <v>732</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -6258,10 +6266,10 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>540</v>
+        <v>452</v>
       </c>
       <c r="C276" t="s">
-        <v>838</v>
+        <v>733</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -6269,10 +6277,10 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>541</v>
+        <v>453</v>
       </c>
       <c r="C277" t="s">
-        <v>839</v>
+        <v>734</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -6280,10 +6288,10 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>542</v>
+        <v>454</v>
       </c>
       <c r="C278" t="s">
-        <v>840</v>
+        <v>735</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -6291,10 +6299,10 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>543</v>
+        <v>455</v>
       </c>
       <c r="C279" t="s">
-        <v>841</v>
+        <v>736</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -6302,10 +6310,10 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="C280" t="s">
-        <v>842</v>
+        <v>737</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -6313,10 +6321,10 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>545</v>
+        <v>457</v>
       </c>
       <c r="C281" t="s">
-        <v>843</v>
+        <v>738</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -6324,10 +6332,10 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>546</v>
+        <v>458</v>
       </c>
       <c r="C282" t="s">
-        <v>844</v>
+        <v>739</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -6335,10 +6343,10 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>547</v>
+        <v>902</v>
       </c>
       <c r="C283" t="s">
-        <v>845</v>
+        <v>740</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -6346,10 +6354,10 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>548</v>
+        <v>903</v>
       </c>
       <c r="C284" t="s">
-        <v>846</v>
+        <v>741</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -6357,10 +6365,10 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>549</v>
+        <v>904</v>
       </c>
       <c r="C285" t="s">
-        <v>847</v>
+        <v>742</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -6368,10 +6376,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>550</v>
+        <v>905</v>
       </c>
       <c r="C286" t="s">
-        <v>848</v>
+        <v>743</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -6379,10 +6387,10 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>551</v>
+        <v>906</v>
       </c>
       <c r="C287" t="s">
-        <v>849</v>
+        <v>744</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -6390,10 +6398,10 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="C288" t="s">
-        <v>850</v>
+        <v>745</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -6401,10 +6409,10 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>553</v>
+        <v>907</v>
       </c>
       <c r="C289" t="s">
-        <v>851</v>
+        <v>746</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -6412,10 +6420,10 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>554</v>
+        <v>460</v>
       </c>
       <c r="C290" t="s">
-        <v>852</v>
+        <v>747</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -6423,10 +6431,10 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>382</v>
+        <v>812</v>
       </c>
       <c r="C291" t="s">
-        <v>682</v>
+        <v>577</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -6434,10 +6442,10 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>555</v>
+        <v>908</v>
       </c>
       <c r="C292" t="s">
-        <v>853</v>
+        <v>748</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -6445,10 +6453,10 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
       <c r="C293" t="s">
-        <v>854</v>
+        <v>749</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -6456,10 +6464,10 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>557</v>
+        <v>909</v>
       </c>
       <c r="C294" t="s">
-        <v>855</v>
+        <v>750</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -6467,10 +6475,10 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>558</v>
+        <v>462</v>
       </c>
       <c r="C295" t="s">
-        <v>856</v>
+        <v>751</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -6478,10 +6486,10 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>559</v>
+        <v>463</v>
       </c>
       <c r="C296" t="s">
-        <v>857</v>
+        <v>752</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -6489,10 +6497,10 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>560</v>
+        <v>464</v>
       </c>
       <c r="C297" t="s">
-        <v>858</v>
+        <v>753</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -6500,10 +6508,10 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>561</v>
+        <v>465</v>
       </c>
       <c r="C298" t="s">
-        <v>859</v>
+        <v>754</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -6511,10 +6519,10 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>562</v>
+        <v>466</v>
       </c>
       <c r="C299" t="s">
-        <v>860</v>
+        <v>755</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -6522,10 +6530,10 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>563</v>
+        <v>467</v>
       </c>
       <c r="C300" t="s">
-        <v>861</v>
+        <v>756</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -6533,10 +6541,10 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>564</v>
+        <v>468</v>
       </c>
       <c r="C301" t="s">
-        <v>862</v>
+        <v>757</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -6544,10 +6552,10 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>565</v>
+        <v>910</v>
       </c>
       <c r="C302" t="s">
-        <v>863</v>
+        <v>758</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -6555,10 +6563,10 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>566</v>
+        <v>911</v>
       </c>
       <c r="C303" t="s">
-        <v>864</v>
+        <v>759</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -6566,10 +6574,10 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>567</v>
+        <v>912</v>
       </c>
       <c r="C304" t="s">
-        <v>865</v>
+        <v>760</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -6577,10 +6585,10 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>568</v>
+        <v>469</v>
       </c>
       <c r="C305" t="s">
-        <v>866</v>
+        <v>761</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -6588,21 +6596,21 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>569</v>
+        <v>913</v>
       </c>
       <c r="C306" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>307</v>
       </c>
-      <c r="B307" t="s">
-        <v>570</v>
+      <c r="B307" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="C307" t="s">
-        <v>868</v>
+        <v>763</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -6613,7 +6621,7 @@
         <v>360</v>
       </c>
       <c r="C308" t="s">
-        <v>645</v>
+        <v>540</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -6621,10 +6629,10 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>571</v>
+        <v>470</v>
       </c>
       <c r="C309" t="s">
-        <v>869</v>
+        <v>764</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -6632,10 +6640,10 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>572</v>
+        <v>471</v>
       </c>
       <c r="C310" t="s">
-        <v>870</v>
+        <v>765</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -6643,32 +6651,32 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>573</v>
+        <v>472</v>
       </c>
       <c r="C311" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>312</v>
       </c>
-      <c r="B312" t="s">
-        <v>574</v>
+      <c r="B312" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="C312" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>313</v>
       </c>
-      <c r="B313" t="s">
-        <v>574</v>
+      <c r="B313" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="C313" t="s">
-        <v>872</v>
+        <v>767</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -6676,10 +6684,10 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>575</v>
+        <v>916</v>
       </c>
       <c r="C314" t="s">
-        <v>873</v>
+        <v>768</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -6687,21 +6695,21 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>576</v>
+        <v>917</v>
       </c>
       <c r="C315" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="320" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>316</v>
       </c>
-      <c r="B316" t="s">
-        <v>577</v>
-      </c>
-      <c r="C316" t="s">
-        <v>875</v>
+      <c r="B316" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -6709,10 +6717,10 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>578</v>
+        <v>473</v>
       </c>
       <c r="C317" t="s">
-        <v>876</v>
+        <v>771</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -6720,10 +6728,10 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="C318" t="s">
-        <v>877</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
